--- a/Куделин/Солнечная энергетика/Solar AsiaPacific Total.xlsx
+++ b/Куделин/Солнечная энергетика/Solar AsiaPacific Total.xlsx
@@ -1159,22 +1159,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>417.37603021738312</c:v>
+                  <c:v>1.5599427594290074</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>510.48460386756562</c:v>
+                  <c:v>1.9943787138384612</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>618.89383523272784</c:v>
+                  <c:v>2.5503299892586071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>741.67197502267823</c:v>
+                  <c:v>3.2585812845939186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>876.06411087229526</c:v>
+                  <c:v>4.1592784955200655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1024.3753205878838</c:v>
+                  <c:v>5.3059634333076211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,22 +1246,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>185.47136738134637</c:v>
+                  <c:v>121.72119041482257</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>275.33101046494266</c:v>
+                  <c:v>186.75226962624438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>382.8675981179091</c:v>
+                  <c:v>244.70668286813554</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>483.51552000666248</c:v>
+                  <c:v>300.2731225226072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>576.97992949022421</c:v>
+                  <c:v>359.03814214814065</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>718.45572312239926</c:v>
+                  <c:v>474.78825671205493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,11 +1282,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627535568"/>
-        <c:axId val="1627532304"/>
+        <c:axId val="-85348560"/>
+        <c:axId val="-85361616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627535568"/>
+        <c:axId val="-85348560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1329,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627532304"/>
+        <c:crossAx val="-85361616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1337,7 +1337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627532304"/>
+        <c:axId val="-85361616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1389,7 +1389,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627535568"/>
+        <c:crossAx val="-85348560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,19 +1754,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1251.6806026375766</c:v>
+                  <c:v>21.766356690580288</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1412.1566595388597</c:v>
+                  <c:v>30.468846975283622</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1532.7404471542807</c:v>
+                  <c:v>39.956167066901855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1617.4520026646203</c:v>
+                  <c:v>51.275891757413042</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1794.0522326101277</c:v>
+                  <c:v>66.702561318290776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,19 +1827,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1260.4843225428119</c:v>
+                  <c:v>21.918962410167691</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1433.8744432697881</c:v>
+                  <c:v>30.936368959504581</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1573.29233600261</c:v>
+                  <c:v>41.011471124437826</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1682.3628657352681</c:v>
+                  <c:v>53.330927074737311</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1894.8172961670875</c:v>
+                  <c:v>70.44516819004906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,11 +1860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627540464"/>
-        <c:axId val="1627528496"/>
+        <c:axId val="-85347472"/>
+        <c:axId val="-85353456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627540464"/>
+        <c:axId val="-85347472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,7 +1907,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627528496"/>
+        <c:crossAx val="-85353456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1915,7 +1915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627528496"/>
+        <c:axId val="-85353456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1967,7 +1967,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627540464"/>
+        <c:crossAx val="-85347472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2335,19 +2335,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1282.7287148421799</c:v>
+                  <c:v>22.304551857602398</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1480.6375429879859</c:v>
+                  <c:v>31.943045213372944</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1653.1664234202406</c:v>
+                  <c:v>43.090078334550071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1803.0981119691769</c:v>
+                  <c:v>57.153325719883675</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2075.2147817740274</c:v>
+                  <c:v>77.145475275141109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,19 +2408,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1283.1265844805084</c:v>
+                  <c:v>22.311448622051138</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1481.4685799095757</c:v>
+                  <c:v>31.960935069693292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1654.5948531236756</c:v>
+                  <c:v>43.127251144615173</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1805.2827129342779</c:v>
+                  <c:v>57.222488752466646</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2078.5268525142478</c:v>
+                  <c:v>77.268491906843948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,11 +2441,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627531760"/>
-        <c:axId val="1627532848"/>
+        <c:axId val="-85346384"/>
+        <c:axId val="-85357808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627531760"/>
+        <c:axId val="-85346384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2488,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627532848"/>
+        <c:crossAx val="-85357808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2496,7 +2496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627532848"/>
+        <c:axId val="-85357808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -2548,7 +2548,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627531760"/>
+        <c:crossAx val="-85346384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2840,88 +2840,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>13381.884159468407</c:v>
+                  <c:v>0.63888277948860384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13797.191627218766</c:v>
+                  <c:v>0.6992299715988195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14128.649634452517</c:v>
+                  <c:v>0.74965579192971099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14511.019560935903</c:v>
+                  <c:v>0.81185196528479286</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14925.882475218497</c:v>
+                  <c:v>0.90528789922853969</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15563.882921480617</c:v>
+                  <c:v>1.0594311355048751</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15799.596068168668</c:v>
+                  <c:v>1.423788417945723</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16357.739666156878</c:v>
+                  <c:v>1.7994765721321591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16935.121568843122</c:v>
+                  <c:v>2.255640902039568</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17736.914638193048</c:v>
+                  <c:v>2.9718345488807878</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18464.078545158507</c:v>
+                  <c:v>4.1876869395573308</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19166.692215718551</c:v>
+                  <c:v>5.7628250982908593</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20058.735773087752</c:v>
+                  <c:v>7.8187626848272016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20435.969784417954</c:v>
+                  <c:v>12.698194298744079</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20278.499739432627</c:v>
+                  <c:v>21.073503873656769</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21589.613748314347</c:v>
+                  <c:v>33.912263179829672</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22277.930768954324</c:v>
+                  <c:v>65.648612993412343</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22832.897362521064</c:v>
+                  <c:v>101.52151966290219</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23467.918512807806</c:v>
+                  <c:v>138.59293640973411</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24074.119579745573</c:v>
+                  <c:v>197.26150234678809</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24308.615009446032</c:v>
+                  <c:v>255.9794773336148</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24951.573195105961</c:v>
+                  <c:v>328.41494798557272</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25699.435183038651</c:v>
+                  <c:v>445.47996089304161</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26745.772154130489</c:v>
+                  <c:v>575.760244320575</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27099.499905623976</c:v>
+                  <c:v>705.2251576877859</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26986.49569151612</c:v>
+                  <c:v>854.37473965683262</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28520.172901436086</c:v>
+                  <c:v>1059.2936809324981</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29165.129834866351</c:v>
+                  <c:v>1322.6156827866339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,11 +3150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627533392"/>
-        <c:axId val="1627535024"/>
+        <c:axId val="-85344208"/>
+        <c:axId val="-85345840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627533392"/>
+        <c:axId val="-85344208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +3197,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627535024"/>
+        <c:crossAx val="-85345840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3205,7 +3205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627535024"/>
+        <c:axId val="-85345840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,7 +3256,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627533392"/>
+        <c:crossAx val="-85344208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4829,11 +4829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627551344"/>
-        <c:axId val="1627542096"/>
+        <c:axId val="-85342576"/>
+        <c:axId val="-85361072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627551344"/>
+        <c:axId val="-85342576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4932,7 +4932,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627542096"/>
+        <c:crossAx val="-85361072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4940,7 +4940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627542096"/>
+        <c:axId val="-85361072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5051,7 +5051,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627551344"/>
+        <c:crossAx val="-85342576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6641,11 +6641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627525232"/>
-        <c:axId val="1627530672"/>
+        <c:axId val="-85359984"/>
+        <c:axId val="-85358896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627525232"/>
+        <c:axId val="-85359984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6744,7 +6744,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627530672"/>
+        <c:crossAx val="-85358896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6752,7 +6752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627530672"/>
+        <c:axId val="-85358896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6926,7 +6926,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627525232"/>
+        <c:crossAx val="-85359984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8516,11 +8516,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627530128"/>
-        <c:axId val="1627542640"/>
+        <c:axId val="-85356720"/>
+        <c:axId val="-85352912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627530128"/>
+        <c:axId val="-85356720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8618,7 +8618,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627542640"/>
+        <c:crossAx val="-85352912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8626,7 +8626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627542640"/>
+        <c:axId val="-85352912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8737,7 +8737,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627530128"/>
+        <c:crossAx val="-85356720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13268,7 +13268,7 @@
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13475,88 +13475,88 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>13381.884159468407</v>
+        <v>0.63888277948860384</v>
       </c>
       <c r="F4" s="1">
-        <v>13797.191627218766</v>
+        <v>0.6992299715988195</v>
       </c>
       <c r="G4" s="1">
-        <v>14128.649634452517</v>
+        <v>0.74965579192971099</v>
       </c>
       <c r="H4" s="1">
-        <v>14511.019560935903</v>
+        <v>0.81185196528479286</v>
       </c>
       <c r="I4" s="1">
-        <v>14925.882475218497</v>
+        <v>0.90528789922853969</v>
       </c>
       <c r="J4" s="1">
-        <v>15563.882921480617</v>
+        <v>1.0594311355048751</v>
       </c>
       <c r="K4" s="1">
-        <v>15799.596068168668</v>
+        <v>1.423788417945723</v>
       </c>
       <c r="L4" s="1">
-        <v>16357.739666156878</v>
+        <v>1.7994765721321591</v>
       </c>
       <c r="M4" s="1">
-        <v>16935.121568843122</v>
+        <v>2.255640902039568</v>
       </c>
       <c r="N4" s="1">
-        <v>17736.914638193048</v>
+        <v>2.9718345488807878</v>
       </c>
       <c r="O4" s="1">
-        <v>18464.078545158507</v>
+        <v>4.1876869395573308</v>
       </c>
       <c r="P4" s="1">
-        <v>19166.692215718551</v>
+        <v>5.7628250982908593</v>
       </c>
       <c r="Q4" s="1">
-        <v>20058.735773087752</v>
+        <v>7.8187626848272016</v>
       </c>
       <c r="R4" s="1">
-        <v>20435.969784417954</v>
+        <v>12.698194298744079</v>
       </c>
       <c r="S4" s="1">
-        <v>20278.499739432627</v>
+        <v>21.073503873656769</v>
       </c>
       <c r="T4" s="1">
-        <v>21589.613748314347</v>
+        <v>33.912263179829672</v>
       </c>
       <c r="U4" s="1">
-        <v>22277.930768954324</v>
+        <v>65.648612993412343</v>
       </c>
       <c r="V4" s="1">
-        <v>22832.897362521064</v>
+        <v>101.52151966290219</v>
       </c>
       <c r="W4" s="1">
-        <v>23467.918512807806</v>
+        <v>138.59293640973411</v>
       </c>
       <c r="X4" s="1">
-        <v>24074.119579745573</v>
+        <v>197.26150234678809</v>
       </c>
       <c r="Y4" s="1">
-        <v>24308.615009446032</v>
+        <v>255.9794773336148</v>
       </c>
       <c r="Z4" s="1">
-        <v>24951.573195105961</v>
+        <v>328.41494798557272</v>
       </c>
       <c r="AA4" s="1">
-        <v>25699.435183038651</v>
+        <v>445.47996089304161</v>
       </c>
       <c r="AB4" s="38">
-        <v>26745.772154130489</v>
+        <v>575.760244320575</v>
       </c>
       <c r="AC4" s="1">
-        <v>27099.499905623976</v>
+        <v>705.2251576877859</v>
       </c>
       <c r="AD4" s="1">
-        <v>26986.49569151612</v>
+        <v>854.37473965683262</v>
       </c>
       <c r="AE4" s="1">
-        <v>28520.172901436086</v>
+        <v>1059.2936809324981</v>
       </c>
       <c r="AF4" s="39">
-        <v>29165.129834866351</v>
+        <v>1322.6156827866339</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -14419,111 +14419,111 @@
       </c>
       <c r="F16">
         <f>$A16*($C16*E$4)+($B16-$A16)*(E$3)-($B16/($C16*E$4))*(E3^2)</f>
-        <v>0.56472465323842125</v>
+        <v>-8.6167263244511724E-3</v>
       </c>
       <c r="G16">
         <f>$A16*($C16*F$4)+($B16-$A16)*(F$17)-($B16/($C16*F$4))*(F17^2)</f>
-        <v>0.73942405250738763</v>
+        <v>-2.6299069741547339E-3</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:AF16" si="6">$A16*($C16*G$4)+($B16-$A16)*(G$17)-($B16/($C16*G$4))*(G17^2)</f>
-        <v>0.95927805041649794</v>
+        <v>-4.6914893404321686E-4</v>
       </c>
       <c r="I16">
         <f t="shared" si="6"/>
-        <v>1.2421759689891836</v>
+        <v>9.6164020469907859E-4</v>
       </c>
       <c r="J16">
         <f t="shared" si="6"/>
-        <v>1.6046211502213819</v>
+        <v>2.3806451187971152E-3</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>2.076085714364547</v>
+        <v>4.1506620438587893E-3</v>
       </c>
       <c r="L16">
         <f t="shared" si="6"/>
-        <v>2.660291671955386</v>
+        <v>7.3677388685290356E-3</v>
       </c>
       <c r="M16">
         <f t="shared" si="6"/>
-        <v>3.4170755260459975</v>
+        <v>9.7083496673786279E-3</v>
       </c>
       <c r="N16">
         <f t="shared" si="6"/>
-        <v>4.379664536883725</v>
+        <v>1.2205346874621222E-2</v>
       </c>
       <c r="O16">
         <f t="shared" si="6"/>
-        <v>5.6106915827208077</v>
+        <v>1.5679887453566042E-2</v>
       </c>
       <c r="P16">
         <f t="shared" si="6"/>
-        <v>7.1662123077128808</v>
+        <v>2.0547957232761073E-2</v>
       </c>
       <c r="Q16">
         <f t="shared" si="6"/>
-        <v>9.1292327678808256</v>
+        <v>2.6147413635920498E-2</v>
       </c>
       <c r="R16">
         <f t="shared" si="6"/>
-        <v>11.609884727943644</v>
+        <v>3.2903717505629829E-2</v>
       </c>
       <c r="S16">
         <f t="shared" si="6"/>
-        <v>14.688946411387807</v>
+        <v>4.3478518393475676E-2</v>
       </c>
       <c r="T16">
         <f t="shared" si="6"/>
-        <v>18.477424331455072</v>
+        <v>5.6934861423039065E-2</v>
       </c>
       <c r="U16">
         <f t="shared" si="6"/>
-        <v>23.276717445590076</v>
+        <v>7.3756940458304679E-2</v>
       </c>
       <c r="V16">
         <f t="shared" si="6"/>
-        <v>29.120473522130453</v>
+        <v>9.7389477732594876E-2</v>
       </c>
       <c r="W16">
         <f t="shared" si="6"/>
-        <v>36.19783141251358</v>
+        <v>0.12580223454501779</v>
       </c>
       <c r="X16">
         <f t="shared" si="6"/>
-        <v>44.688466270223103</v>
+        <v>0.1610670284668963</v>
       </c>
       <c r="Y16">
         <f t="shared" si="6"/>
-        <v>54.688997485056994</v>
+        <v>0.20721905923525621</v>
       </c>
       <c r="Z16">
         <f t="shared" si="6"/>
-        <v>66.051679288051261</v>
+        <v>0.26490122304139635</v>
       </c>
       <c r="AA16">
         <f t="shared" si="6"/>
-        <v>78.955471239083948</v>
+        <v>0.33839573874981327</v>
       </c>
       <c r="AB16" s="43">
         <f t="shared" si="6"/>
-        <v>93.108573650182478</v>
+        <v>0.43443595440945382</v>
       </c>
       <c r="AC16" s="44">
         <f t="shared" si="6"/>
-        <v>108.40923136516226</v>
+        <v>0.55595127542014566</v>
       </c>
       <c r="AD16" s="44">
         <f t="shared" si="6"/>
-        <v>122.77813978995036</v>
+        <v>0.70825129533531173</v>
       </c>
       <c r="AE16" s="44">
         <f t="shared" si="6"/>
-        <v>134.39213584961698</v>
+        <v>0.90069721092614685</v>
       </c>
       <c r="AF16" s="45">
         <f t="shared" si="6"/>
-        <v>148.31120971558846</v>
+        <v>1.1466849377875559</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -14539,111 +14539,111 @@
       </c>
       <c r="F17" s="6">
         <f>E$3+F16</f>
-        <v>0.63538475424852225</v>
+        <v>6.2043374685649848E-2</v>
       </c>
       <c r="G17" s="6">
         <f>F17+G16</f>
-        <v>1.3748088067559099</v>
+        <v>5.941346771149511E-2</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ref="H17" si="7">G17+H16</f>
-        <v>2.3340868571724078</v>
+        <v>5.894431877745189E-2</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ref="I17" si="8">H17+I16</f>
-        <v>3.5762628261615914</v>
+        <v>5.9905958982150967E-2</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" ref="J17" si="9">I17+J16</f>
-        <v>5.1808839763829733</v>
+        <v>6.2286604100948079E-2</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ref="K17" si="10">J17+K16</f>
-        <v>7.2569696907475203</v>
+        <v>6.643726614480687E-2</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" ref="L17" si="11">K17+L16</f>
-        <v>9.9172613627029058</v>
+        <v>7.3805005013335909E-2</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" ref="M17" si="12">L17+M16</f>
-        <v>13.334336888748904</v>
+        <v>8.3513354680714538E-2</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" ref="N17" si="13">M17+N16</f>
-        <v>17.714001425632631</v>
+        <v>9.5718701555335767E-2</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" ref="O17" si="14">N17+O16</f>
-        <v>23.324693008353439</v>
+        <v>0.11139858900890182</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" ref="P17" si="15">O17+P16</f>
-        <v>30.490905316066318</v>
+        <v>0.13194654624166288</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" ref="Q17" si="16">P17+Q16</f>
-        <v>39.62013808394714</v>
+        <v>0.15809395987758337</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" ref="R17" si="17">Q17+R16</f>
-        <v>51.230022811890784</v>
+        <v>0.19099767738321322</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" ref="S17" si="18">R17+S16</f>
-        <v>65.918969223278594</v>
+        <v>0.23447619577668888</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" ref="T17" si="19">S17+T16</f>
-        <v>84.396393554733663</v>
+        <v>0.29141105719972793</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" ref="U17" si="20">T17+U16</f>
-        <v>107.67311100032374</v>
+        <v>0.36516799765803259</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" ref="V17" si="21">U17+V16</f>
-        <v>136.79358452245418</v>
+        <v>0.46255747539062747</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" ref="W17" si="22">V17+W16</f>
-        <v>172.99141593496776</v>
+        <v>0.58835970993564524</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" ref="X17" si="23">W17+X16</f>
-        <v>217.67988220519086</v>
+        <v>0.74942673840254148</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" ref="Y17" si="24">X17+Y16</f>
-        <v>272.36887969024787</v>
+        <v>0.95664579763779767</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" ref="Z17" si="25">Y17+Z16</f>
-        <v>338.42055897829914</v>
+        <v>1.2215470206791941</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" ref="AA17" si="26">Z17+AA16</f>
-        <v>417.37603021738312</v>
+        <v>1.5599427594290074</v>
       </c>
       <c r="AB17" s="49">
         <f t="shared" ref="AB17" si="27">AA17+AB16</f>
-        <v>510.48460386756562</v>
+        <v>1.9943787138384612</v>
       </c>
       <c r="AC17" s="50">
         <f t="shared" ref="AC17" si="28">AB17+AC16</f>
-        <v>618.89383523272784</v>
+        <v>2.5503299892586071</v>
       </c>
       <c r="AD17" s="50">
         <f t="shared" ref="AD17" si="29">AC17+AD16</f>
-        <v>741.67197502267823</v>
+        <v>3.2585812845939186</v>
       </c>
       <c r="AE17" s="50">
         <f t="shared" ref="AE17" si="30">AD17+AE16</f>
-        <v>876.06411087229526</v>
+        <v>4.1592784955200655</v>
       </c>
       <c r="AF17" s="51">
         <f t="shared" ref="AF17" si="31">AE17+AF16</f>
-        <v>1024.3753205878838</v>
+        <v>5.3059634333076211</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -14652,126 +14652,126 @@
       </c>
       <c r="B18" s="17">
         <f>AF17-$AF$3</f>
-        <v>281.1967940641307</v>
+        <v>-737.87256309044551</v>
       </c>
       <c r="C18" s="18">
         <f>((AF17-AA17)-($AF$3-$AA$3))</f>
-        <v>83.665385104753568</v>
+        <v>-519.58788459186849</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="5">
         <f>SUM(F18:AA18)</f>
-        <v>191308.29888827464</v>
+        <v>81745.451454206239</v>
       </c>
       <c r="F18">
         <f>(F3-F17)^2</f>
-        <v>0.28860978539623217</v>
+        <v>1.3044544021921214E-3</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18:AF18" si="32">(G3-G17)^2</f>
-        <v>1.5074765221030537</v>
+        <v>7.6741076427014427E-3</v>
       </c>
       <c r="H18">
         <f t="shared" si="32"/>
-        <v>4.5418770489628733</v>
+        <v>2.0728667385898368E-2</v>
       </c>
       <c r="I18">
         <f>(I3-I17)^2</f>
-        <v>10.824075128278771</v>
+        <v>5.1239142545776932E-2</v>
       </c>
       <c r="J18">
         <f t="shared" si="32"/>
-        <v>22.585158912354089</v>
+        <v>0.13411183110548638</v>
       </c>
       <c r="K18">
         <f t="shared" si="32"/>
-        <v>44.201864325178946</v>
+        <v>0.29385523667944491</v>
       </c>
       <c r="L18">
         <f t="shared" si="32"/>
-        <v>82.594196643509406</v>
+        <v>0.5705104476890378</v>
       </c>
       <c r="M18">
         <f t="shared" si="32"/>
-        <v>149.27344635429233</v>
+        <v>1.0672382809121077</v>
       </c>
       <c r="N18">
         <f t="shared" si="32"/>
-        <v>264.06885093348797</v>
+        <v>1.8716628930204935</v>
       </c>
       <c r="O18">
         <f t="shared" si="32"/>
-        <v>461.05217266682581</v>
+        <v>3.0316692722599714</v>
       </c>
       <c r="P18">
         <f t="shared" si="32"/>
-        <v>795.22767868186679</v>
+        <v>4.6620463267803016</v>
       </c>
       <c r="Q18">
         <f t="shared" si="32"/>
-        <v>1359.5244885902118</v>
+        <v>6.7097261796617662</v>
       </c>
       <c r="R18">
         <f t="shared" si="32"/>
-        <v>2294.3779687761307</v>
+        <v>9.8555780126627486</v>
       </c>
       <c r="S18">
         <f t="shared" si="32"/>
-        <v>3786.7154133513827</v>
+        <v>17.207559614332983</v>
       </c>
       <c r="T18">
         <f t="shared" si="32"/>
-        <v>6030.6855860924225</v>
+        <v>41.570173371525719</v>
       </c>
       <c r="U18">
         <f t="shared" si="32"/>
-        <v>9122.0035034996745</v>
+        <v>139.21080354711705</v>
       </c>
       <c r="V18">
         <f t="shared" si="32"/>
-        <v>14217.473173680002</v>
+        <v>292.20418303780144</v>
       </c>
       <c r="W18">
         <f t="shared" si="32"/>
-        <v>19769.74316813533</v>
+        <v>1011.1215488166289</v>
       </c>
       <c r="X18">
         <f t="shared" si="32"/>
-        <v>23935.82936297794</v>
+        <v>3871.125576115991</v>
       </c>
       <c r="Y18">
         <f t="shared" si="32"/>
-        <v>31238.729257033021</v>
+        <v>8961.9203992263156</v>
       </c>
       <c r="Z18">
         <f t="shared" si="32"/>
-        <v>38698.394033659577</v>
+        <v>19734.612998396668</v>
       </c>
       <c r="AA18">
         <f t="shared" si="32"/>
-        <v>39018.657525476694</v>
+        <v>47648.200867227111</v>
       </c>
       <c r="AB18" s="43">
         <f t="shared" si="32"/>
-        <v>40448.467039464391</v>
+        <v>94477.658638088746</v>
       </c>
       <c r="AC18" s="44">
         <f t="shared" si="32"/>
-        <v>52222.400375528567</v>
+        <v>150405.35719325062</v>
       </c>
       <c r="AD18" s="44">
         <f t="shared" si="32"/>
-        <v>75502.16052996277</v>
+        <v>214959.1092039939</v>
       </c>
       <c r="AE18" s="44">
         <f t="shared" si="32"/>
-        <v>81257.290672746618</v>
+        <v>344390.79541013966</v>
       </c>
       <c r="AF18" s="45">
         <f t="shared" si="32"/>
-        <v>79071.636991945124</v>
+        <v>544455.91936166352</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14780,126 +14780,126 @@
       </c>
       <c r="B19" s="20">
         <f>(B18/$AF$3)*100</f>
-        <v>37.837045074410291</v>
+        <v>-99.286044571534319</v>
       </c>
       <c r="C19" s="21">
         <f>((C18)/($AF$3-$AA$3))*100</f>
-        <v>15.986998790431622</v>
+        <v>-99.284200653505067</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="5">
         <f>SUM(F19:AA19)</f>
-        <v>1410.8387086799523</v>
+        <v>601.12583287946518</v>
       </c>
       <c r="F19">
         <f>SQRT(F18)</f>
-        <v>0.5372241481879162</v>
+        <v>3.6117231374956212E-2</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19" si="33">SQRT(G18)</f>
-        <v>1.2277933548048929</v>
+        <v>8.7601984239521896E-2</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19" si="34">SQRT(H18)</f>
-        <v>2.1311680011118019</v>
+        <v>0.14397453728315424</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19" si="35">SQRT(I18)</f>
-        <v>3.2899962201009854</v>
+        <v>0.22636064707845516</v>
       </c>
       <c r="J19">
         <f t="shared" ref="J19" si="36">SQRT(J18)</f>
-        <v>4.7523845501341837</v>
+        <v>0.36621282214784123</v>
       </c>
       <c r="K19">
         <f t="shared" ref="K19" si="37">SQRT(K18)</f>
-        <v>6.6484482644583274</v>
+        <v>0.54208416014438654</v>
       </c>
       <c r="L19">
         <f t="shared" ref="L19" si="38">SQRT(L18)</f>
-        <v>9.0881349375715921</v>
+        <v>0.7553214201179772</v>
       </c>
       <c r="M19">
         <f t="shared" ref="M19" si="39">SQRT(M18)</f>
-        <v>12.217751280587288</v>
+        <v>1.0330722534809014</v>
       </c>
       <c r="N19">
         <f t="shared" ref="N19" si="40">SQRT(N18)</f>
-        <v>16.250195412163141</v>
+        <v>1.3680873119141532</v>
       </c>
       <c r="O19">
         <f t="shared" ref="O19" si="41">SQRT(O18)</f>
-        <v>21.47212548088395</v>
+        <v>1.7411689384605882</v>
       </c>
       <c r="P19">
         <f t="shared" ref="P19" si="42">SQRT(P18)</f>
-        <v>28.199781536066318</v>
+        <v>2.1591772337583364</v>
       </c>
       <c r="Q19">
         <f t="shared" ref="Q19" si="43">SQRT(Q18)</f>
-        <v>36.871730208795626</v>
+        <v>2.5903139152739318</v>
       </c>
       <c r="R19">
         <f t="shared" ref="R19" si="44">SQRT(R18)</f>
-        <v>47.899665643677835</v>
+        <v>3.1393594908297375</v>
       </c>
       <c r="S19">
         <f t="shared" ref="S19" si="45">SQRT(S18)</f>
-        <v>61.536293464518828</v>
+        <v>4.1481995629830761</v>
       </c>
       <c r="T19">
         <f t="shared" ref="T19" si="46">SQRT(T18)</f>
-        <v>77.657488924716219</v>
+        <v>6.447493572817713</v>
       </c>
       <c r="U19">
         <f t="shared" ref="U19" si="47">SQRT(U18)</f>
-        <v>95.50918020535866</v>
+        <v>11.798762797307058</v>
       </c>
       <c r="V19">
         <f t="shared" ref="V19" si="48">SQRT(V18)</f>
-        <v>119.23704614623763</v>
+        <v>17.093980900825922</v>
       </c>
       <c r="W19">
         <f t="shared" ref="W19" si="49">SQRT(W18)</f>
-        <v>140.60491871956447</v>
+        <v>31.798137505467658</v>
       </c>
       <c r="X19">
         <f t="shared" ref="X19" si="50">SQRT(X18)</f>
-        <v>154.71208538112961</v>
+        <v>62.218370085658712</v>
       </c>
       <c r="Y19">
         <f t="shared" ref="Y19" si="51">SQRT(Y18)</f>
-        <v>176.74481394664178</v>
+        <v>94.667419945968291</v>
       </c>
       <c r="Z19">
         <f t="shared" ref="Z19" si="52">SQRT(Z18)</f>
-        <v>196.71907389386413</v>
+        <v>140.47993806375581</v>
       </c>
       <c r="AA19">
         <f t="shared" ref="AA19" si="53">SQRT(AA18)</f>
-        <v>197.53140895937713</v>
+        <v>218.28467849857697</v>
       </c>
       <c r="AB19" s="43">
         <f t="shared" ref="AB19" si="54">SQRT(AB18)</f>
-        <v>201.1180425507975</v>
+        <v>307.37218260292968</v>
       </c>
       <c r="AC19" s="44">
         <f t="shared" ref="AC19" si="55">SQRT(AC18)</f>
-        <v>228.52220980799342</v>
+        <v>387.8212954354758</v>
       </c>
       <c r="AD19" s="44">
         <f t="shared" ref="AD19" si="56">SQRT(AD18)</f>
-        <v>274.77656473935832</v>
+        <v>463.636828998726</v>
       </c>
       <c r="AE19" s="44">
         <f t="shared" ref="AE19" si="57">SQRT(AE18)</f>
-        <v>285.05664467390795</v>
+        <v>586.84818770286722</v>
       </c>
       <c r="AF19" s="45">
         <f t="shared" ref="AF19" si="58">SQRT(AF18)</f>
-        <v>281.1967940641307</v>
+        <v>737.87256309044551</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15044,111 +15044,111 @@
       </c>
       <c r="F24">
         <f>$A24*($C24/($C24+E5))*E$4+($B24-$A24)*(E$3)-($B24/(($C24/($C24+E5))*E$4)*(E$3^2))</f>
-        <v>3.7844029982157266</v>
+        <v>-1.9882526408494451E-2</v>
       </c>
       <c r="G24">
         <f>$A24*($C24/($C24+F5))*F$4+($B24-$A24)*(F$25)-($B24/(($C24/($C24+F5))*F$4)*(F$25^2))</f>
-        <v>4.9104762817395455</v>
+        <v>-4.7011486203250782E-3</v>
       </c>
       <c r="H24">
         <f t="shared" ref="H24:AF24" si="60">$A24*($C24/($C24+G5))*G$4+($B24-$A24)*(G$25)-($B24/(($C24/($C24+G5))*G$4)*(G$25^2))</f>
-        <v>5.4701685633887553</v>
+        <v>-2.7138451722124993E-2</v>
       </c>
       <c r="I24">
         <f t="shared" si="60"/>
-        <v>5.9495978293905267</v>
+        <v>-4.2545631026920321E-2</v>
       </c>
       <c r="J24">
         <f t="shared" si="60"/>
-        <v>6.4450970392995837</v>
+        <v>-6.9992284863136384E-2</v>
       </c>
       <c r="K24">
         <f t="shared" si="60"/>
-        <v>7.0524414280808188</v>
+        <v>-0.10826253758925417</v>
       </c>
       <c r="L24">
         <f t="shared" si="60"/>
-        <v>7.5732780151919643</v>
+        <v>-0.1719766467474324</v>
       </c>
       <c r="M24">
         <f t="shared" si="60"/>
-        <v>8.2284976688967788</v>
+        <v>-0.2441679563785234</v>
       </c>
       <c r="N24">
         <f t="shared" si="60"/>
-        <v>8.9570403217716379</v>
+        <v>-0.33685088587946854</v>
       </c>
       <c r="O24">
         <f t="shared" si="60"/>
-        <v>9.8424470015769661</v>
+        <v>-0.42891167324218171</v>
       </c>
       <c r="P24">
         <f t="shared" si="60"/>
-        <v>10.778265480936257</v>
+        <v>-0.49107668427241991</v>
       </c>
       <c r="Q24">
         <f t="shared" si="60"/>
-        <v>11.758099324640522</v>
+        <v>-0.56681925555493251</v>
       </c>
       <c r="R24">
         <f t="shared" si="60"/>
-        <v>12.887121929610055</v>
+        <v>-0.6032357937543642</v>
       </c>
       <c r="S24">
         <f t="shared" si="60"/>
-        <v>13.829414349908856</v>
+        <v>-0.42750778504848758</v>
       </c>
       <c r="T24">
         <f t="shared" si="60"/>
-        <v>14.493565869147901</v>
+        <v>-0.3146012154936606</v>
       </c>
       <c r="U24">
         <f t="shared" si="60"/>
-        <v>16.017147534946211</v>
+        <v>-0.22254198533034197</v>
       </c>
       <c r="V24">
         <f t="shared" si="60"/>
-        <v>17.693994752670061</v>
+        <v>1.2918979386184359E-2</v>
       </c>
       <c r="W24">
         <f t="shared" si="60"/>
-        <v>19.995499723254923</v>
+        <v>-0.42251177353964087</v>
       </c>
       <c r="X24">
         <f t="shared" si="60"/>
-        <v>22.4924813132073</v>
+        <v>-0.57055981942653711</v>
       </c>
       <c r="Y24">
         <f t="shared" si="60"/>
-        <v>26.976504915936808</v>
+        <v>-3.1797012334138577</v>
       </c>
       <c r="Z24">
         <f t="shared" si="60"/>
-        <v>34.769543484000152</v>
+        <v>-13.647882796881719</v>
       </c>
       <c r="AA24">
         <f t="shared" si="60"/>
-        <v>43.769882296911369</v>
+        <v>-19.98029466961243</v>
       </c>
       <c r="AB24" s="43">
         <f t="shared" si="60"/>
-        <v>55.486389206936657</v>
+        <v>-33.092351631761602</v>
       </c>
       <c r="AC24" s="44">
         <f t="shared" si="60"/>
-        <v>73.501036801140984</v>
+        <v>-64.659878448632583</v>
       </c>
       <c r="AD24" s="44">
         <f t="shared" si="60"/>
-        <v>93.143894581928052</v>
+        <v>-90.098502902127208</v>
       </c>
       <c r="AE24" s="44">
         <f t="shared" si="60"/>
-        <v>110.08451920690429</v>
+        <v>-107.85726813517923</v>
       </c>
       <c r="AF24" s="45">
         <f t="shared" si="60"/>
-        <v>127.44825692401193</v>
+        <v>-116.2192094863324</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -15164,111 +15164,111 @@
       </c>
       <c r="F25" s="6">
         <f>E$3+F24</f>
-        <v>3.8550630992258275</v>
+        <v>5.0777574601606569E-2</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" ref="G25:AF25" si="61">F$3+G24</f>
-        <v>5.0086368878001517</v>
+        <v>9.3459457440280974E-2</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="61"/>
-        <v>5.6171840153397721</v>
+        <v>0.11987700022889201</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="61"/>
-        <v>6.1525166854511326</v>
+        <v>0.16037322503368578</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="61"/>
-        <v>6.7313636453601902</v>
+        <v>0.21627432119746973</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="61"/>
-        <v>7.4809408543296083</v>
+        <v>0.32023688865953515</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="61"/>
-        <v>8.1817994414811572</v>
+        <v>0.43654477954176096</v>
       </c>
       <c r="M25" s="6">
         <f t="shared" si="61"/>
-        <v>9.0576240940280925</v>
+        <v>0.58495846875278967</v>
       </c>
       <c r="N25" s="6">
         <f t="shared" si="61"/>
-        <v>10.073625929933254</v>
+        <v>0.77973472228214735</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="61"/>
-        <v>11.306253015046455</v>
+        <v>1.0348943402273072</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="61"/>
-        <v>12.630833008405748</v>
+        <v>1.36149084319707</v>
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="61"/>
-        <v>14.049223104640522</v>
+        <v>1.7243045244450665</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" si="61"/>
-        <v>15.635529804761571</v>
+        <v>2.1451720813971509</v>
       </c>
       <c r="S25" s="6">
         <f t="shared" si="61"/>
-        <v>17.159771518121808</v>
+        <v>2.9028493831644635</v>
       </c>
       <c r="T25" s="6">
         <f t="shared" si="61"/>
-        <v>18.876241627907667</v>
+        <v>4.0680745432661043</v>
       </c>
       <c r="U25" s="6">
         <f t="shared" si="61"/>
-        <v>22.756052164963652</v>
+        <v>6.5163626446870984</v>
       </c>
       <c r="V25" s="6">
         <f t="shared" si="61"/>
-        <v>29.857925547635151</v>
+        <v>12.176849774351274</v>
       </c>
       <c r="W25" s="6">
         <f t="shared" si="61"/>
-        <v>37.552038099471474</v>
+        <v>17.134026602676911</v>
       </c>
       <c r="X25" s="6">
         <f t="shared" si="61"/>
-        <v>54.878978528610602</v>
+        <v>31.815937395976764</v>
       </c>
       <c r="Y25" s="6">
         <f t="shared" si="61"/>
-        <v>89.944301739998053</v>
+        <v>59.788095590647394</v>
       </c>
       <c r="Z25" s="6">
         <f t="shared" si="61"/>
-        <v>130.39360922760625</v>
+        <v>81.976182946724379</v>
       </c>
       <c r="AA25" s="6">
         <f t="shared" si="61"/>
-        <v>185.47136738134637</v>
+        <v>121.72119041482257</v>
       </c>
       <c r="AB25" s="49">
         <f t="shared" si="61"/>
-        <v>275.33101046494266</v>
+        <v>186.75226962624438</v>
       </c>
       <c r="AC25" s="50">
         <f t="shared" si="61"/>
-        <v>382.8675981179091</v>
+        <v>244.70668286813554</v>
       </c>
       <c r="AD25" s="50">
         <f t="shared" si="61"/>
-        <v>483.51552000666248</v>
+        <v>300.2731225226072</v>
       </c>
       <c r="AE25" s="50">
         <f t="shared" si="61"/>
-        <v>576.97992949022421</v>
+        <v>359.03814214814065</v>
       </c>
       <c r="AF25" s="51">
         <f t="shared" si="61"/>
-        <v>718.45572312239926</v>
+        <v>474.78825671205493</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
@@ -15277,126 +15277,126 @@
       </c>
       <c r="B26" s="17">
         <f>AF25-$AF$3</f>
-        <v>-24.722803401353872</v>
+        <v>-268.3902698116982</v>
       </c>
       <c r="C26" s="18">
         <f>((AF25-AA25)-($AF$3-$AA$3))</f>
-        <v>9.6504504753057745</v>
+        <v>-170.26683896851478</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="5">
         <f>SUM(F26:AA26)</f>
-        <v>2862.9378676460901</v>
+        <v>15757.818618675836</v>
       </c>
       <c r="F26">
         <f>(F3-F25)^2</f>
-        <v>14.114316343151055</v>
+        <v>2.2451516702445356E-3</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26:AF26" si="62">(G3-G25)^2</f>
-        <v>23.635362985507804</v>
+        <v>2.8682445480339882E-3</v>
       </c>
       <c r="H26">
         <f t="shared" si="62"/>
-        <v>29.314267214984255</v>
+        <v>6.8959498199751886E-3</v>
       </c>
       <c r="I26">
         <f t="shared" si="62"/>
-        <v>34.412889993949356</v>
+        <v>1.5849143386389344E-2</v>
       </c>
       <c r="J26">
         <f t="shared" si="62"/>
-        <v>39.726097364554768</v>
+        <v>4.5039495214043622E-2</v>
       </c>
       <c r="K26">
         <f t="shared" si="62"/>
-        <v>47.230148794907336</v>
+        <v>8.3107974636345824E-2</v>
       </c>
       <c r="L26">
         <f t="shared" si="62"/>
-        <v>54.061800485359122</v>
+        <v>0.15412034845380071</v>
       </c>
       <c r="M26">
         <f t="shared" si="62"/>
-        <v>63.060092234012544</v>
+        <v>0.28262741535601155</v>
       </c>
       <c r="N26">
         <f t="shared" si="62"/>
-        <v>74.128998993936122</v>
+        <v>0.46795353142671681</v>
       </c>
       <c r="O26">
         <f t="shared" si="62"/>
-        <v>89.372169298023323</v>
+        <v>0.66858944113478969</v>
       </c>
       <c r="P26">
         <f t="shared" si="62"/>
-        <v>106.90958692797901</v>
+        <v>0.86421739718883861</v>
       </c>
       <c r="Q26">
         <f t="shared" si="62"/>
-        <v>127.70842485105069</v>
+        <v>1.0487876729281751</v>
       </c>
       <c r="R26">
         <f t="shared" si="62"/>
-        <v>151.41727361526495</v>
+        <v>1.4046636900105756</v>
       </c>
       <c r="S26">
         <f t="shared" si="62"/>
-        <v>163.25417604390751</v>
+        <v>2.1898861019075269</v>
       </c>
       <c r="T26">
         <f t="shared" si="62"/>
-        <v>147.31494940035495</v>
+        <v>7.1333333522961508</v>
       </c>
       <c r="U26">
         <f t="shared" si="62"/>
-        <v>112.19303511678022</v>
+        <v>31.895026012034375</v>
       </c>
       <c r="V26">
         <f t="shared" si="62"/>
-        <v>151.32412634114212</v>
+        <v>28.941049453039184</v>
       </c>
       <c r="W26">
         <f t="shared" si="62"/>
-        <v>26.682812624979789</v>
+        <v>232.63785979208217</v>
       </c>
       <c r="X26">
         <f t="shared" si="62"/>
-        <v>65.428981416817166</v>
+        <v>970.43834582713646</v>
       </c>
       <c r="Y26">
         <f t="shared" si="62"/>
-        <v>32.25971913668166</v>
+        <v>1284.2167568037469</v>
       </c>
       <c r="Z26">
         <f t="shared" si="62"/>
-        <v>127.86805639345073</v>
+        <v>3567.1117154408216</v>
       </c>
       <c r="AA26">
         <f t="shared" si="62"/>
-        <v>1181.5205820692954</v>
+        <v>9628.2076804369972</v>
       </c>
       <c r="AB26" s="43">
         <f t="shared" si="62"/>
-        <v>1158.418721787197</v>
+        <v>15034.26452676884</v>
       </c>
       <c r="AC26" s="44">
         <f t="shared" si="62"/>
-        <v>56.310425821580083</v>
+        <v>21218.275490017251</v>
       </c>
       <c r="AD26" s="44">
         <f t="shared" si="62"/>
-        <v>276.22804721594656</v>
+        <v>27762.986778613751</v>
       </c>
       <c r="AE26" s="44">
         <f t="shared" si="62"/>
-        <v>196.7717860988632</v>
+        <v>53809.767300328342</v>
       </c>
       <c r="AF26" s="45">
         <f t="shared" si="62"/>
-        <v>611.21700802199462</v>
+        <v>72033.33692959616</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15405,126 +15405,126 @@
       </c>
       <c r="B27" s="20">
         <f>(B26/$AF$3)*100</f>
-        <v>-3.3266304823143584</v>
+        <v>-36.113835401986691</v>
       </c>
       <c r="C27" s="21">
         <f>((C26)/($AF$3-$AA$3))*100</f>
-        <v>1.844033107391601</v>
+        <v>-32.535029214675831</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="5">
         <f>SUM(F27:AA27)</f>
-        <v>212.80043103082102</v>
+        <v>261.64220493241595</v>
       </c>
       <c r="F27">
         <f>SQRT(F26)</f>
-        <v>3.7569024931652213</v>
+        <v>4.738303145899949E-2</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="63">SQRT(G26)</f>
-        <v>4.861621435849135</v>
+        <v>5.3555994510736032E-2</v>
       </c>
       <c r="H27">
         <f t="shared" ref="H27" si="64">SQRT(H26)</f>
-        <v>5.4142651592791662</v>
+        <v>8.3041855831714098E-2</v>
       </c>
       <c r="I27">
         <f t="shared" ref="I27" si="65">SQRT(I26)</f>
-        <v>5.8662500793905261</v>
+        <v>0.12589338102692033</v>
       </c>
       <c r="J27">
         <f t="shared" ref="J27" si="66">SQRT(J26)</f>
-        <v>6.3028642191114006</v>
+        <v>0.21222510505131956</v>
       </c>
       <c r="K27">
         <f t="shared" ref="K27" si="67">SQRT(K26)</f>
-        <v>6.8724194280404145</v>
+        <v>0.28828453762965822</v>
       </c>
       <c r="L27">
         <f t="shared" ref="L27" si="68">SQRT(L26)</f>
-        <v>7.3526730163498444</v>
+        <v>0.39258164558955211</v>
       </c>
       <c r="M27">
         <f t="shared" ref="M27" si="69">SQRT(M26)</f>
-        <v>7.9410384858664766</v>
+        <v>0.53162713940882622</v>
       </c>
       <c r="N27">
         <f t="shared" ref="N27" si="70">SQRT(N26)</f>
-        <v>8.6098199164637652</v>
+        <v>0.68407129118734167</v>
       </c>
       <c r="O27">
         <f t="shared" ref="O27" si="71">SQRT(O26)</f>
-        <v>9.4536854875769656</v>
+        <v>0.81767318724218274</v>
       </c>
       <c r="P27">
         <f t="shared" ref="P27" si="72">SQRT(P26)</f>
-        <v>10.339709228405749</v>
+        <v>0.92963293680292902</v>
       </c>
       <c r="Q27">
         <f t="shared" ref="Q27" si="73">SQRT(Q26)</f>
-        <v>11.300815229489007</v>
+        <v>1.0241033507064485</v>
       </c>
       <c r="R27">
         <f t="shared" ref="R27" si="74">SQRT(R26)</f>
-        <v>12.305172636548621</v>
+        <v>1.1851850868158</v>
       </c>
       <c r="S27">
         <f t="shared" ref="S27" si="75">SQRT(S26)</f>
-        <v>12.777095759362043</v>
+        <v>1.4798263755953016</v>
       </c>
       <c r="T27">
         <f t="shared" ref="T27" si="76">SQRT(T26)</f>
-        <v>12.137336997890227</v>
+        <v>2.6708300867513364</v>
       </c>
       <c r="U27">
         <f t="shared" ref="U27" si="77">SQRT(U26)</f>
-        <v>10.592121369998562</v>
+        <v>5.6475681502779915</v>
       </c>
       <c r="V27">
         <f t="shared" ref="V27" si="78">SQRT(V26)</f>
-        <v>12.3013871714186</v>
+        <v>5.3796886018652774</v>
       </c>
       <c r="W27">
         <f t="shared" ref="W27" si="79">SQRT(W26)</f>
-        <v>5.1655408840681716</v>
+        <v>15.252470612726391</v>
       </c>
       <c r="X27">
         <f t="shared" ref="X27" si="80">SQRT(X26)</f>
-        <v>8.0888182954506505</v>
+        <v>31.151859428084489</v>
       </c>
       <c r="Y27">
         <f t="shared" ref="Y27" si="81">SQRT(Y26)</f>
-        <v>5.6797640036080423</v>
+        <v>35.835970152958701</v>
       </c>
       <c r="Z27">
         <f t="shared" ref="Z27" si="82">SQRT(Z26)</f>
-        <v>11.307875856828758</v>
+        <v>59.725302137710628</v>
       </c>
       <c r="AA27">
         <f t="shared" ref="AA27" si="83">SQRT(AA26)</f>
-        <v>34.373253876659618</v>
+        <v>98.123430843183414</v>
       </c>
       <c r="AB27" s="43">
         <f t="shared" ref="AB27" si="84">SQRT(AB26)</f>
-        <v>34.035550851825462</v>
+        <v>122.61429169052374</v>
       </c>
       <c r="AC27" s="44">
         <f t="shared" ref="AC27" si="85">SQRT(AC26)</f>
-        <v>7.5040273068253214</v>
+        <v>145.66494255659887</v>
       </c>
       <c r="AD27" s="44">
         <f t="shared" ref="AD27" si="86">SQRT(AD26)</f>
-        <v>16.62010972334258</v>
+        <v>166.62228776071271</v>
       </c>
       <c r="AE27" s="44">
         <f t="shared" ref="AE27" si="87">SQRT(AE26)</f>
-        <v>14.027536708163098</v>
+        <v>231.96932405024666</v>
       </c>
       <c r="AF27" s="45">
         <f t="shared" ref="AF27" si="88">SQRT(AF26)</f>
-        <v>24.722803401353872</v>
+        <v>268.3902698116982</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16242,107 +16242,107 @@
       </c>
       <c r="F43">
         <f>G44-F44</f>
-        <v>2.99385764723805</v>
+        <v>1.8099043100819334E-4</v>
       </c>
       <c r="G43">
         <f t="shared" ref="G43" si="93">H44-G44</f>
-        <v>3.7676554936283377</v>
+        <v>2.3075193447592846E-4</v>
       </c>
       <c r="H43">
         <f t="shared" ref="H43" si="94">I44-H44</f>
-        <v>4.909145505512523</v>
+        <v>3.2295874631632637E-4</v>
       </c>
       <c r="I43">
         <f t="shared" ref="I43" si="95">J44-I44</f>
-        <v>6.3622943501348637</v>
+        <v>4.8768056676533333E-4</v>
       </c>
       <c r="J43">
         <f t="shared" ref="J43" si="96">K44-J44</f>
-        <v>8.6838484908003863</v>
+        <v>7.9878453959265905E-4</v>
       </c>
       <c r="K43">
         <f t="shared" ref="K43" si="97">L44-K44</f>
-        <v>10.028920953460002</v>
+        <v>1.7124289923916708E-3</v>
       </c>
       <c r="L43">
         <f t="shared" ref="L43" si="98">M44-L44</f>
-        <v>13.830333564569173</v>
+        <v>2.4506140647875679E-3</v>
       </c>
       <c r="M43">
         <f t="shared" ref="M43" si="99">N44-M44</f>
-        <v>17.725915203819021</v>
+        <v>3.7646323615687372E-3</v>
       </c>
       <c r="N43">
         <f t="shared" ref="N43" si="100">O44-N44</f>
-        <v>23.776403704346237</v>
+        <v>6.6728226663601564E-3</v>
       </c>
       <c r="O43">
         <f t="shared" ref="O43" si="101">P44-O44</f>
-        <v>29.691494337905581</v>
+        <v>1.278024271430335E-2</v>
       </c>
       <c r="P43">
         <f t="shared" ref="P43" si="102">Q44-P44</f>
-        <v>37.068249335360946</v>
+        <v>2.08760887739112E-2</v>
       </c>
       <c r="Q43">
         <f t="shared" ref="Q43" si="103">R44-Q44</f>
-        <v>48.057477134983088</v>
+        <v>3.3776982169187605E-2</v>
       </c>
       <c r="R43">
         <f t="shared" ref="R43" si="104">S44-R44</f>
-        <v>52.564503511872999</v>
+        <v>8.2880406438914866E-2</v>
       </c>
       <c r="S43">
         <f t="shared" ref="S43" si="105">T44-S44</f>
-        <v>54.065480279324106</v>
+        <v>0.16876137929769441</v>
       </c>
       <c r="T43">
         <f t="shared" ref="T43" si="106">U44-T44</f>
-        <v>89.499372913202023</v>
+        <v>0.31253823902639394</v>
       </c>
       <c r="U43">
         <f t="shared" ref="U43" si="107">V44-U44</f>
-        <v>92.823070776107443</v>
+        <v>0.84181839011006165</v>
       </c>
       <c r="V43">
         <f t="shared" ref="V43" si="108">W44-V44</f>
-        <v>102.52345105404441</v>
+        <v>1.2143056331726907</v>
       </c>
       <c r="W43">
         <f t="shared" ref="W43" si="109">X44-W44</f>
-        <v>116.32355850490728</v>
+        <v>1.5747404568930095</v>
       </c>
       <c r="X43">
         <f t="shared" ref="X43" si="110">Y44-X44</f>
-        <v>125.62170967239751</v>
+        <v>2.6875662967603215</v>
       </c>
       <c r="Y43">
         <f t="shared" ref="Y43" si="111">Z44-Y44</f>
-        <v>118.45172064921951</v>
+        <v>3.2340078658219715</v>
       </c>
       <c r="Z43">
         <f t="shared" ref="Z43" si="112">AA44-Z44</f>
-        <v>137.9225529118911</v>
+        <v>4.3647572241229504</v>
       </c>
       <c r="AA43">
         <f t="shared" ref="AA43" si="113">AB44-AA44</f>
-        <v>144.95420981128404</v>
+        <v>7.1297899808359695</v>
       </c>
       <c r="AB43" s="43">
         <f t="shared" ref="AB43" si="114">AC44-AB44</f>
-        <v>160.47605690128307</v>
+        <v>8.7024902847033339</v>
       </c>
       <c r="AC43" s="44">
         <f t="shared" ref="AC43" si="115">AD44-AC44</f>
-        <v>120.58378761542099</v>
+        <v>9.4873200916182334</v>
       </c>
       <c r="AD43" s="44">
         <f t="shared" ref="AD43" si="116">AE44-AD44</f>
-        <v>84.711555510339622</v>
+        <v>11.319724690511187</v>
       </c>
       <c r="AE43" s="44">
         <f t="shared" ref="AE43" si="117">AF44-AE44</f>
-        <v>176.60022994550741</v>
+        <v>15.426669560877734</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -16358,111 +16358,111 @@
       </c>
       <c r="F44" s="12">
         <f>$E$3+$C43*E4*(1/(1+EXP(-$A43*(F42-$B43))))</f>
-        <v>10.035376831567962</v>
+        <v>7.1135840139641374E-2</v>
       </c>
       <c r="G44" s="12">
         <f>$E$3+$C43*F4*(1/(1+EXP(-$A43*(G42-$B43))))</f>
-        <v>13.029234478806012</v>
+        <v>7.1316830570649567E-2</v>
       </c>
       <c r="H44" s="12">
         <f t="shared" ref="H44:AF44" si="118">$E$3+$C43*G4*(1/(1+EXP(-$A43*(H42-$B43))))</f>
-        <v>16.79688997243435</v>
+        <v>7.1547582505125495E-2</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" si="118"/>
-        <v>21.706035477946873</v>
+        <v>7.1870541251441822E-2</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="118"/>
-        <v>28.068329828081737</v>
+        <v>7.2358221818207155E-2</v>
       </c>
       <c r="K44" s="12">
         <f>$E$3+$C43*J4*(1/(1+EXP(-$A43*(K42-$B43))))</f>
-        <v>36.752178318882123</v>
+        <v>7.3157006357799814E-2</v>
       </c>
       <c r="L44" s="12">
         <f t="shared" si="118"/>
-        <v>46.781099272342125</v>
+        <v>7.4869435350191485E-2</v>
       </c>
       <c r="M44" s="12">
         <f t="shared" si="118"/>
-        <v>60.611432836911298</v>
+        <v>7.7320049414979053E-2</v>
       </c>
       <c r="N44" s="12">
         <f t="shared" si="118"/>
-        <v>78.337348040730319</v>
+        <v>8.108468177654779E-2</v>
       </c>
       <c r="O44" s="12">
         <f t="shared" si="118"/>
-        <v>102.11375174507656</v>
+        <v>8.7757504442907946E-2</v>
       </c>
       <c r="P44" s="12">
         <f t="shared" si="118"/>
-        <v>131.80524608298214</v>
+        <v>0.1005377471572113</v>
       </c>
       <c r="Q44" s="12">
         <f t="shared" si="118"/>
-        <v>168.87349541834308</v>
+        <v>0.1214138359311225</v>
       </c>
       <c r="R44" s="12">
         <f t="shared" si="118"/>
-        <v>216.93097255332617</v>
+        <v>0.1551908181003101</v>
       </c>
       <c r="S44" s="12">
         <f t="shared" si="118"/>
-        <v>269.49547606519917</v>
+        <v>0.23807122453922497</v>
       </c>
       <c r="T44" s="12">
         <f t="shared" si="118"/>
-        <v>323.56095634452328</v>
+        <v>0.40683260383691938</v>
       </c>
       <c r="U44" s="12">
         <f t="shared" si="118"/>
-        <v>413.0603292577253</v>
+        <v>0.71937084286331332</v>
       </c>
       <c r="V44" s="12">
         <f t="shared" si="118"/>
-        <v>505.88340003383274</v>
+        <v>1.561189232973375</v>
       </c>
       <c r="W44" s="12">
         <f t="shared" si="118"/>
-        <v>608.40685108787716</v>
+        <v>2.7754948661460657</v>
       </c>
       <c r="X44" s="12">
         <f t="shared" si="118"/>
-        <v>724.73040959278444</v>
+        <v>4.3502353230390751</v>
       </c>
       <c r="Y44" s="12">
         <f t="shared" si="118"/>
-        <v>850.35211926518195</v>
+        <v>7.0378016197993967</v>
       </c>
       <c r="Z44" s="12">
         <f t="shared" si="118"/>
-        <v>968.80383991440146</v>
+        <v>10.271809485621368</v>
       </c>
       <c r="AA44" s="12">
         <f t="shared" si="118"/>
-        <v>1106.7263928262926</v>
+        <v>14.636566709744319</v>
       </c>
       <c r="AB44" s="52">
         <f t="shared" si="118"/>
-        <v>1251.6806026375766</v>
+        <v>21.766356690580288</v>
       </c>
       <c r="AC44" s="53">
         <f t="shared" si="118"/>
-        <v>1412.1566595388597</v>
+        <v>30.468846975283622</v>
       </c>
       <c r="AD44" s="53">
         <f t="shared" si="118"/>
-        <v>1532.7404471542807</v>
+        <v>39.956167066901855</v>
       </c>
       <c r="AE44" s="53">
         <f t="shared" si="118"/>
-        <v>1617.4520026646203</v>
+        <v>51.275891757413042</v>
       </c>
       <c r="AF44" s="54">
         <f t="shared" si="118"/>
-        <v>1794.0522326101277</v>
+        <v>66.702561318290776</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -16471,126 +16471,126 @@
       </c>
       <c r="B45" s="17">
         <f>AF44-$AF$3</f>
-        <v>1050.8737060863746</v>
+        <v>-676.47596520546233</v>
       </c>
       <c r="C45" s="18">
         <f>((AF44-AA44)-($AF$3-$AA$3))</f>
-        <v>163.99193451808799</v>
+        <v>-471.26791065720067</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="5">
         <f>SUM(F45:AA45)</f>
-        <v>3494522.2090948187</v>
+        <v>72017.503508689711</v>
       </c>
       <c r="F45" s="3">
         <f>(F44-F$3)^2</f>
-        <v>98.748266312486663</v>
+        <v>7.3033797308293428E-4</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" ref="G45" si="119">(G44-G$3)^2</f>
-        <v>165.95156705586487</v>
+        <v>5.7302812788882227E-3</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" ref="H45" si="120">(H44-H$3)^2</f>
-        <v>275.35987741104611</v>
+        <v>1.725841151558892E-2</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" ref="I45" si="121">(I44-I$3)^2</f>
-        <v>458.80649852502785</v>
+        <v>4.5965672605655372E-2</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" ref="J45" si="122">(J44-J$3)^2</f>
-        <v>763.96022464208897</v>
+        <v>0.12683655749326569</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" ref="K45" si="123">(K44-K$3)^2</f>
-        <v>1306.3639335694804</v>
+        <v>0.28661506212847754</v>
       </c>
       <c r="L45" s="3">
         <f t="shared" ref="L45" si="124">(L44-L$3)^2</f>
-        <v>2111.5838085507999</v>
+        <v>0.56890360663367889</v>
       </c>
       <c r="M45" s="3">
         <f t="shared" ref="M45" si="125">(M44-M$3)^2</f>
-        <v>3539.6368467722641</v>
+        <v>1.0800729015969592</v>
       </c>
       <c r="N45" s="3">
         <f t="shared" ref="N45" si="126">(N44-N$3)^2</f>
-        <v>5909.5414638170359</v>
+        <v>1.9119182811187008</v>
       </c>
       <c r="O45" s="3">
         <f t="shared" ref="O45" si="127">(O44-O$3)^2</f>
-        <v>10052.305060716941</v>
+        <v>3.1145544173750848</v>
       </c>
       <c r="P45" s="3">
         <f t="shared" ref="P45" si="128">(P44-P$3)^2</f>
-        <v>16773.907875911817</v>
+        <v>4.7986671672859034</v>
       </c>
       <c r="Q45" s="3">
         <f t="shared" ref="Q45" si="129">(Q44-Q$3)^2</f>
-        <v>27597.544711233062</v>
+        <v>6.9010976820994729</v>
       </c>
       <c r="R45" s="3">
         <f t="shared" ref="R45" si="130">(R44-R$3)^2</f>
-        <v>45625.222892899073</v>
+        <v>10.08168135088763</v>
       </c>
       <c r="S45" s="3">
         <f t="shared" ref="S45" si="131">(S44-S$3)^2</f>
-        <v>70284.796886322016</v>
+        <v>17.17774674508146</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" ref="T45" si="132">(T44-T$3)^2</f>
-        <v>100376.21245258901</v>
+        <v>40.095136144737886</v>
       </c>
       <c r="U45" s="3">
         <f t="shared" ref="U45" si="133">(U44-U$3)^2</f>
-        <v>160717.9223004122</v>
+        <v>130.97795249725183</v>
       </c>
       <c r="V45" s="3">
         <f t="shared" ref="V45" si="134">(V44-V$3)^2</f>
-        <v>238463.12381637661</v>
+        <v>255.85119421425023</v>
       </c>
       <c r="W45" s="3">
         <f t="shared" ref="W45" si="135">(W44-W$3)^2</f>
-        <v>331799.44807536999</v>
+        <v>876.81146012771762</v>
       </c>
       <c r="X45" s="3">
         <f t="shared" ref="X45" si="136">(X44-X$3)^2</f>
-        <v>437929.75565848709</v>
+        <v>3436.0185163261176</v>
       </c>
       <c r="Y45" s="3">
         <f t="shared" ref="Y45" si="137">(Y44-Y$3)^2</f>
-        <v>569614.43477246666</v>
+        <v>7847.5261914128423</v>
       </c>
       <c r="Z45" s="3">
         <f t="shared" ref="Z45" si="138">(Z44-Z$3)^2</f>
-        <v>684098.30536527571</v>
+        <v>17273.759628009389</v>
       </c>
       <c r="AA45" s="3">
         <f t="shared" ref="AA45" si="139">(AA44-AA$3)^2</f>
-        <v>786559.27674010245</v>
+        <v>42110.345651482334</v>
       </c>
       <c r="AB45" s="46">
         <f t="shared" ref="AB45" si="140">(AB44-AB$3)^2</f>
-        <v>887955.7524703542</v>
+        <v>82713.877701025136</v>
       </c>
       <c r="AC45" s="47">
         <f t="shared" ref="AC45" si="141">(AC44-AC$3)^2</f>
-        <v>1044044.655939604</v>
+        <v>129530.00993563447</v>
       </c>
       <c r="AD45" s="47">
         <f t="shared" ref="AD45" si="142">(AD44-AD$3)^2</f>
-        <v>1136025.6426224597</v>
+        <v>182277.11739820777</v>
       </c>
       <c r="AE45" s="47">
         <f t="shared" ref="AE45" si="143">(AE44-AE$3)^2</f>
-        <v>1053588.3864413798</v>
+        <v>291310.17244853289</v>
       </c>
       <c r="AF45" s="48">
         <f t="shared" ref="AF45" si="144">(AF44-AF$3)^2</f>
-        <v>1104335.546143712</v>
+        <v>457619.73150066187</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16599,126 +16599,126 @@
       </c>
       <c r="B46" s="20">
         <f>(B45/$AF$3)*100</f>
-        <v>141.4025928604097</v>
+        <v>-91.024692057466368</v>
       </c>
       <c r="C46" s="21">
         <f>((C45)/($AF$3-$AA$3))*100</f>
-        <v>31.33600419694066</v>
+        <v>-90.051094705567081</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="5">
         <f>SUM(F46:AA46)</f>
-        <v>6094.0912927895106</v>
+        <v>565.64294045235852</v>
       </c>
       <c r="F46">
         <f>SQRT(F45)</f>
-        <v>9.9372162255073562</v>
+        <v>2.7024765920964686E-2</v>
       </c>
       <c r="G46">
         <f t="shared" ref="G46" si="145">SQRT(G45)</f>
-        <v>12.882219026854996</v>
+        <v>7.569862138036744E-2</v>
       </c>
       <c r="H46">
         <f t="shared" ref="H46" si="146">SQRT(H45)</f>
-        <v>16.593971116373744</v>
+        <v>0.13137127355548062</v>
       </c>
       <c r="I46">
         <f t="shared" ref="I46" si="147">SQRT(I45)</f>
-        <v>21.419768871886266</v>
+        <v>0.21439606480916429</v>
       </c>
       <c r="J46">
         <f t="shared" ref="J46" si="148">SQRT(J45)</f>
-        <v>27.639830401832949</v>
+        <v>0.35614120443058211</v>
       </c>
       <c r="K46">
         <f t="shared" ref="K46" si="149">SQRT(K45)</f>
-        <v>36.143656892592929</v>
+        <v>0.53536441993139361</v>
       </c>
       <c r="L46">
         <f t="shared" ref="L46" si="150">SQRT(L45)</f>
-        <v>45.951972847210811</v>
+        <v>0.75425698978112155</v>
       </c>
       <c r="M46">
         <f t="shared" ref="M46" si="151">SQRT(M45)</f>
-        <v>59.494847228749684</v>
+        <v>1.0392655587466368</v>
       </c>
       <c r="N46">
         <f t="shared" ref="N46" si="152">SQRT(N45)</f>
-        <v>76.873542027260825</v>
+        <v>1.3827213316929412</v>
       </c>
       <c r="O46">
         <f t="shared" ref="O46" si="153">SQRT(O45)</f>
-        <v>100.26118421760707</v>
+        <v>1.764810023026582</v>
       </c>
       <c r="P46">
         <f t="shared" ref="P46" si="154">SQRT(P45)</f>
-        <v>129.51412230298214</v>
+        <v>2.1905860328427877</v>
       </c>
       <c r="Q46">
         <f t="shared" ref="Q46" si="155">SQRT(Q45)</f>
-        <v>166.12508754319157</v>
+        <v>2.6269940392203925</v>
       </c>
       <c r="R46">
         <f t="shared" ref="R46" si="156">SQRT(R45)</f>
-        <v>213.60061538511323</v>
+        <v>3.175166350112641</v>
       </c>
       <c r="S46">
         <f t="shared" ref="S46" si="157">SQRT(S45)</f>
-        <v>265.1128003064394</v>
+        <v>4.14460453422054</v>
       </c>
       <c r="T46">
         <f t="shared" ref="T46" si="158">SQRT(T45)</f>
-        <v>316.82205171450585</v>
+        <v>6.332072026180521</v>
       </c>
       <c r="U46">
         <f t="shared" ref="U46" si="159">SQRT(U45)</f>
-        <v>400.8963984627602</v>
+        <v>11.444559952101777</v>
       </c>
       <c r="V46">
         <f t="shared" ref="V46" si="160">SQRT(V45)</f>
-        <v>488.32686165761618</v>
+        <v>15.995349143243176</v>
       </c>
       <c r="W46">
         <f t="shared" ref="W46" si="161">SQRT(W45)</f>
-        <v>576.02035387247383</v>
+        <v>29.611002349257237</v>
       </c>
       <c r="X46">
         <f t="shared" ref="X46" si="162">SQRT(X45)</f>
-        <v>661.76261276872322</v>
+        <v>58.61756150102218</v>
       </c>
       <c r="Y46">
         <f t="shared" ref="Y46" si="163">SQRT(Y45)</f>
-        <v>754.72805352157582</v>
+        <v>88.5862641238067</v>
       </c>
       <c r="Z46">
         <f t="shared" ref="Z46" si="164">SQRT(Z45)</f>
-        <v>827.10235482996643</v>
+        <v>131.42967559881365</v>
       </c>
       <c r="AA46">
         <f t="shared" ref="AA46" si="165">SQRT(AA45)</f>
-        <v>886.88177156828658</v>
+        <v>205.20805454826166</v>
       </c>
       <c r="AB46" s="43">
         <f t="shared" ref="AB46" si="166">SQRT(AB45)</f>
-        <v>942.31404132080843</v>
+        <v>287.60020462618786</v>
       </c>
       <c r="AC46" s="44">
         <f t="shared" ref="AC46" si="167">SQRT(AC45)</f>
-        <v>1021.7850341141252</v>
+        <v>359.90277844945081</v>
       </c>
       <c r="AD46" s="44">
         <f t="shared" ref="AD46" si="168">SQRT(AD45)</f>
-        <v>1065.8450368709607</v>
+        <v>426.93924321641805</v>
       </c>
       <c r="AE46" s="44">
         <f t="shared" ref="AE46" si="169">SQRT(AE45)</f>
-        <v>1026.4445364662329</v>
+        <v>539.73157444097421</v>
       </c>
       <c r="AF46" s="45">
         <f t="shared" ref="AF46" si="170">SQRT(AF45)</f>
-        <v>1050.8737060863746</v>
+        <v>676.47596520546233</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16839,107 +16839,107 @@
       </c>
       <c r="F53">
         <f>G54-F54</f>
-        <v>2.7694143446222554</v>
+        <v>1.6475651849083561E-4</v>
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="171">H54-G54</f>
-        <v>3.5637159723888505</v>
+        <v>2.1545862792211878E-4</v>
       </c>
       <c r="H53">
         <f t="shared" ref="H53" si="172">I54-H54</f>
-        <v>4.7244433367460559</v>
+        <v>3.0660939328767955E-4</v>
       </c>
       <c r="I53">
         <f t="shared" ref="I53" si="173">J54-I54</f>
-        <v>6.2210724060144749</v>
+        <v>4.6844563461866107E-4</v>
       </c>
       <c r="J53">
         <f t="shared" ref="J53" si="174">K54-J54</f>
-        <v>8.5828693826187248</v>
+        <v>7.7404226334816528E-4</v>
       </c>
       <c r="K53">
         <f t="shared" ref="K53" si="175">L54-K54</f>
-        <v>10.100968224663823</v>
+        <v>1.6635887076395378E-3</v>
       </c>
       <c r="L53">
         <f t="shared" ref="L53" si="176">M54-L54</f>
-        <v>13.993762803046685</v>
+        <v>2.420097934568613E-3</v>
       </c>
       <c r="M53">
         <f t="shared" ref="M53" si="177">N54-M54</f>
-        <v>18.061010086658747</v>
+        <v>3.7565307008763649E-3</v>
       </c>
       <c r="N53">
         <f t="shared" ref="N53" si="178">O54-N54</f>
-        <v>24.285207590657436</v>
+        <v>6.6914414554175294E-3</v>
       </c>
       <c r="O53">
         <f t="shared" ref="O53" si="179">P54-O54</f>
-        <v>30.404894757359813</v>
+        <v>1.2857281875348125E-2</v>
       </c>
       <c r="P53">
         <f t="shared" ref="P53" si="180">Q54-P54</f>
-        <v>37.930767304603194</v>
+        <v>2.1082447572240759E-2</v>
       </c>
       <c r="Q53">
         <f t="shared" ref="Q53" si="181">R54-Q54</f>
-        <v>48.975994987784304</v>
+        <v>3.4147970540995276E-2</v>
       </c>
       <c r="R53">
         <f t="shared" ref="R53" si="182">S54-R54</f>
-        <v>53.338186326371499</v>
+        <v>8.3607512230684328E-2</v>
       </c>
       <c r="S53">
         <f t="shared" ref="S53" si="183">T54-S54</f>
-        <v>54.451498269778028</v>
+        <v>0.16993034085934983</v>
       </c>
       <c r="T53">
         <f t="shared" ref="T53" si="184">U54-T54</f>
-        <v>89.539002986442654</v>
+        <v>0.31378246731402248</v>
       </c>
       <c r="U53">
         <f t="shared" ref="U53" si="185">V54-U54</f>
-        <v>92.17168769662436</v>
+        <v>0.8430131595011886</v>
       </c>
       <c r="V53">
         <f t="shared" ref="V53" si="186">W54-V54</f>
-        <v>101.30213359705482</v>
+        <v>1.2112922319202299</v>
       </c>
       <c r="W53">
         <f t="shared" ref="W53" si="187">X54-W54</f>
-        <v>114.87923117729906</v>
+        <v>1.5667806936683326</v>
       </c>
       <c r="X53">
         <f t="shared" ref="X53" si="188">Y54-X54</f>
-        <v>124.62409563117058</v>
+        <v>2.6769805058273795</v>
       </c>
       <c r="Y53">
         <f t="shared" ref="Y53" si="189">Z54-Y54</f>
-        <v>118.93626591892109</v>
+        <v>3.2343172209425068</v>
       </c>
       <c r="Z53">
         <f t="shared" ref="Z53" si="190">AA54-Z54</f>
-        <v>141.06233109173127</v>
+        <v>4.4019597425020791</v>
       </c>
       <c r="AA53">
         <f t="shared" ref="AA53" si="191">AB54-AA54</f>
-        <v>152.18502798923919</v>
+        <v>7.2616930202792389</v>
       </c>
       <c r="AB53" s="43">
         <f t="shared" ref="AB53" si="192">AC54-AB54</f>
-        <v>173.39012072697619</v>
+        <v>9.01740654933689</v>
       </c>
       <c r="AC53" s="44">
         <f t="shared" ref="AC53" si="193">AD54-AC54</f>
-        <v>139.41789273282188</v>
+        <v>10.075102164933245</v>
       </c>
       <c r="AD53" s="44">
         <f t="shared" ref="AD53" si="194">AE54-AD54</f>
-        <v>109.07052973265809</v>
+        <v>12.319455950299485</v>
       </c>
       <c r="AE53" s="44">
         <f t="shared" ref="AE53" si="195">AF54-AE54</f>
-        <v>212.45443043181945</v>
+        <v>17.114241115311749</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
@@ -16955,111 +16955,111 @@
       </c>
       <c r="F54" s="12">
         <f>$E$3+($C53/($C53+E5))*E4*(1/(1+EXP(-$A53*(F52-$B53))))</f>
-        <v>8.3807406610150128</v>
+        <v>7.1056843897924757E-2</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" ref="G54:AF54" si="196">$E$3+($C53/($C53+F5))*F4*(1/(1+EXP(-$A53*(G52-$B53))))</f>
-        <v>11.150155005637268</v>
+        <v>7.1221600416415592E-2</v>
       </c>
       <c r="H54" s="12">
         <f t="shared" si="196"/>
-        <v>14.713870978026119</v>
+        <v>7.1437059044337711E-2</v>
       </c>
       <c r="I54" s="12">
         <f t="shared" si="196"/>
-        <v>19.438314314772175</v>
+        <v>7.1743668437625391E-2</v>
       </c>
       <c r="J54" s="12">
         <f t="shared" si="196"/>
-        <v>25.65938672078665</v>
+        <v>7.2212114072244052E-2</v>
       </c>
       <c r="K54" s="12">
         <f t="shared" si="196"/>
-        <v>34.242256103405374</v>
+        <v>7.2986156335592217E-2</v>
       </c>
       <c r="L54" s="12">
         <f t="shared" si="196"/>
-        <v>44.343224328069198</v>
+        <v>7.4649745043231755E-2</v>
       </c>
       <c r="M54" s="12">
         <f t="shared" si="196"/>
-        <v>58.336987131115883</v>
+        <v>7.7069842977800368E-2</v>
       </c>
       <c r="N54" s="12">
         <f t="shared" si="196"/>
-        <v>76.39799721777463</v>
+        <v>8.0826373678676733E-2</v>
       </c>
       <c r="O54" s="12">
         <f t="shared" si="196"/>
-        <v>100.68320480843207</v>
+        <v>8.7517815134094262E-2</v>
       </c>
       <c r="P54" s="12">
         <f t="shared" si="196"/>
-        <v>131.08809956579188</v>
+        <v>0.10037509700944239</v>
       </c>
       <c r="Q54" s="12">
         <f t="shared" si="196"/>
-        <v>169.01886687039507</v>
+        <v>0.12145754458168315</v>
       </c>
       <c r="R54" s="12">
         <f t="shared" si="196"/>
-        <v>217.99486185817938</v>
+        <v>0.15560551512267842</v>
       </c>
       <c r="S54" s="12">
         <f t="shared" si="196"/>
-        <v>271.33304818455088</v>
+        <v>0.23921302735336275</v>
       </c>
       <c r="T54" s="12">
         <f t="shared" si="196"/>
-        <v>325.7845464543289</v>
+        <v>0.40914336821271258</v>
       </c>
       <c r="U54" s="12">
         <f t="shared" si="196"/>
-        <v>415.32354944077156</v>
+        <v>0.72292583552673506</v>
       </c>
       <c r="V54" s="12">
         <f t="shared" si="196"/>
-        <v>507.49523713739592</v>
+        <v>1.5659389950279237</v>
       </c>
       <c r="W54" s="12">
         <f t="shared" si="196"/>
-        <v>608.79737073445074</v>
+        <v>2.7772312269481536</v>
       </c>
       <c r="X54" s="12">
         <f t="shared" si="196"/>
-        <v>723.6766019117498</v>
+        <v>4.3440119206164862</v>
       </c>
       <c r="Y54" s="12">
         <f t="shared" si="196"/>
-        <v>848.30069754292037</v>
+        <v>7.0209924264438657</v>
       </c>
       <c r="Z54" s="12">
         <f t="shared" si="196"/>
-        <v>967.23696346184147</v>
+        <v>10.255309647386373</v>
       </c>
       <c r="AA54" s="12">
         <f t="shared" si="196"/>
-        <v>1108.2992945535727</v>
+        <v>14.657269389888452</v>
       </c>
       <c r="AB54" s="52">
         <f t="shared" si="196"/>
-        <v>1260.4843225428119</v>
+        <v>21.918962410167691</v>
       </c>
       <c r="AC54" s="53">
         <f t="shared" si="196"/>
-        <v>1433.8744432697881</v>
+        <v>30.936368959504581</v>
       </c>
       <c r="AD54" s="53">
         <f t="shared" si="196"/>
-        <v>1573.29233600261</v>
+        <v>41.011471124437826</v>
       </c>
       <c r="AE54" s="53">
         <f t="shared" si="196"/>
-        <v>1682.3628657352681</v>
+        <v>53.330927074737311</v>
       </c>
       <c r="AF54" s="54">
         <f t="shared" si="196"/>
-        <v>1894.8172961670875</v>
+        <v>70.44516819004906</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
@@ -17068,126 +17068,126 @@
       </c>
       <c r="B55" s="17">
         <f>AF54-$AF$3</f>
-        <v>1151.6387696433344</v>
+        <v>-672.73335833370402</v>
       </c>
       <c r="C55" s="18">
         <f>((AF54-AA54)-($AF$3-$AA$3))</f>
-        <v>263.18409634776765</v>
+        <v>-467.54600646558652</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="5">
         <f>SUM(F55:AA55)</f>
-        <v>3495199.0140852141</v>
+        <v>72016.678500492271</v>
       </c>
       <c r="F55" s="3">
         <f>(F54-F$3)^2</f>
-        <v>68.601132366728535</v>
+        <v>7.3461392337119467E-4</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" ref="G55" si="197">(G54-G$3)^2</f>
-        <v>121.06908003789488</v>
+        <v>5.7447079304492011E-3</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" ref="H55" si="198">(H54-H$3)^2</f>
-        <v>210.56773148597543</v>
+        <v>1.7287462946627204E-2</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" ref="I55" si="199">(I54-I$3)^2</f>
-        <v>366.80093143676402</v>
+        <v>4.6020090766393275E-2</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" ref="J55" si="200">(J54-J$3)^2</f>
-        <v>636.59767366967208</v>
+        <v>0.126940648817987</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" ref="K55" si="201">(K54-K$3)^2</f>
-        <v>1131.2281083306475</v>
+        <v>0.28679802536427645</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" ref="L55" si="202">(L54-L$3)^2</f>
-        <v>1893.4767163064632</v>
+        <v>0.56923506079673303</v>
       </c>
       <c r="M55" s="3">
         <f t="shared" ref="M55" si="203">(M54-M$3)^2</f>
-        <v>3274.1743504481074</v>
+        <v>1.0805930260656937</v>
       </c>
       <c r="N55" s="3">
         <f t="shared" ref="N55" si="204">(N54-N$3)^2</f>
-        <v>5615.1330114433613</v>
+        <v>1.9126326840759249</v>
       </c>
       <c r="O55" s="3">
         <f t="shared" ref="O55" si="205">(O54-O$3)^2</f>
-        <v>9767.49486536119</v>
+        <v>3.115400487015263</v>
       </c>
       <c r="P55" s="3">
         <f t="shared" ref="P55" si="206">(P54-P$3)^2</f>
-        <v>16588.660971565863</v>
+        <v>4.7993797920248591</v>
       </c>
       <c r="Q55" s="3">
         <f t="shared" ref="Q55" si="207">(Q54-Q$3)^2</f>
-        <v>27645.86553448897</v>
+        <v>6.9008680392809492</v>
       </c>
       <c r="R55" s="3">
         <f t="shared" ref="R55" si="208">(R54-R$3)^2</f>
-        <v>46080.849573788619</v>
+        <v>10.079048058799419</v>
       </c>
       <c r="S55" s="3">
         <f t="shared" ref="S55" si="209">(S54-S$3)^2</f>
-        <v>71262.501338268572</v>
+        <v>17.168283406553805</v>
       </c>
       <c r="T55" s="3">
         <f t="shared" ref="T55" si="210">(T54-T$3)^2</f>
-        <v>101790.12156708684</v>
+        <v>40.06587763144379</v>
       </c>
       <c r="U55" s="3">
         <f t="shared" ref="U55" si="211">(U54-U$3)^2</f>
-        <v>162537.67810663208</v>
+        <v>130.896594481893</v>
       </c>
       <c r="V55" s="3">
         <f t="shared" ref="V55" si="212">(V54-V$3)^2</f>
-        <v>240039.92854379764</v>
+        <v>255.6992685696701</v>
       </c>
       <c r="W55" s="3">
         <f t="shared" ref="W55" si="213">(W54-W$3)^2</f>
-        <v>332249.49511099129</v>
+        <v>876.70863237508695</v>
       </c>
       <c r="X55" s="3">
         <f t="shared" ref="X55" si="214">(X54-X$3)^2</f>
-        <v>436536.12512040127</v>
+        <v>3436.7481564053583</v>
       </c>
       <c r="Y55" s="3">
         <f t="shared" ref="Y55" si="215">(Y54-Y$3)^2</f>
-        <v>566522.11205676047</v>
+        <v>7850.5046012464254</v>
       </c>
       <c r="Z55" s="3">
         <f t="shared" ref="Z55" si="216">(Z54-Z$3)^2</f>
-        <v>681508.82605981326</v>
+        <v>17278.097037027364</v>
       </c>
       <c r="AA55" s="3">
         <f t="shared" ref="AA55" si="217">(AA54-AA$3)^2</f>
-        <v>789351.70650073222</v>
+        <v>42101.849366650677</v>
       </c>
       <c r="AB55" s="46">
         <f t="shared" ref="AB55" si="218">(AB54-AB$3)^2</f>
-        <v>904624.99571964156</v>
+        <v>82626.122117169842</v>
       </c>
       <c r="AC55" s="47">
         <f t="shared" ref="AC55" si="219">(AC54-AC$3)^2</f>
-        <v>1088898.1308505672</v>
+        <v>129193.70359022554</v>
       </c>
       <c r="AD55" s="47">
         <f t="shared" ref="AD55" si="220">(AD54-AD$3)^2</f>
-        <v>1224114.1572410963</v>
+        <v>181377.12963348636</v>
       </c>
       <c r="AE55" s="47">
         <f t="shared" ref="AE55" si="221">(AE54-AE$3)^2</f>
-        <v>1191056.6080983044</v>
+        <v>289096.06072398589</v>
       </c>
       <c r="AF55" s="48">
         <f t="shared" ref="AF55" si="222">(AF54-AF$3)^2</f>
-        <v>1326271.8557456131</v>
+        <v>452570.17141494382</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17196,126 +17196,126 @@
       </c>
       <c r="B56" s="20">
         <f>(B55/$AF$3)*100</f>
-        <v>154.96125473783133</v>
+        <v>-90.521097465025107</v>
       </c>
       <c r="C56" s="21">
         <f>((C55)/($AF$3-$AA$3))*100</f>
-        <v>50.289899756088552</v>
+        <v>-89.339903599054665</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="5">
         <f>SUM(F56:AA56)</f>
-        <v>6078.9254025292457</v>
+        <v>565.64967724258179</v>
       </c>
       <c r="F56">
         <f>SQRT(F55)</f>
-        <v>8.2825800549544066</v>
+        <v>2.7103762162681302E-2</v>
       </c>
       <c r="G56">
         <f t="shared" ref="G56" si="223">SQRT(G55)</f>
-        <v>11.003139553686252</v>
+        <v>7.5793851534601414E-2</v>
       </c>
       <c r="H56">
         <f t="shared" ref="H56" si="224">SQRT(H55)</f>
-        <v>14.510952121965513</v>
+        <v>0.13148179701626839</v>
       </c>
       <c r="I56">
         <f t="shared" ref="I56" si="225">SQRT(I55)</f>
-        <v>19.152047708711567</v>
+        <v>0.21452293762298072</v>
       </c>
       <c r="J56">
         <f t="shared" ref="J56" si="226">SQRT(J55)</f>
-        <v>25.230887294537862</v>
+        <v>0.35628731217654525</v>
       </c>
       <c r="K56">
         <f t="shared" ref="K56" si="227">SQRT(K55)</f>
-        <v>33.63373467711618</v>
+        <v>0.53553526995360112</v>
       </c>
       <c r="L56">
         <f t="shared" ref="L56" si="228">SQRT(L55)</f>
-        <v>43.514097902937884</v>
+        <v>0.75447668008808133</v>
       </c>
       <c r="M56">
         <f t="shared" ref="M56" si="229">SQRT(M55)</f>
-        <v>57.220401522954269</v>
+        <v>1.0395157651838156</v>
       </c>
       <c r="N56">
         <f t="shared" ref="N56" si="230">SQRT(N55)</f>
-        <v>74.934191204305137</v>
+        <v>1.3829796397908123</v>
       </c>
       <c r="O56">
         <f t="shared" ref="O56" si="231">SQRT(O55)</f>
-        <v>98.830637280962577</v>
+        <v>1.7650497123353956</v>
       </c>
       <c r="P56">
         <f t="shared" ref="P56" si="232">SQRT(P55)</f>
-        <v>128.79697578579189</v>
+        <v>2.1907486829905567</v>
       </c>
       <c r="Q56">
         <f t="shared" ref="Q56" si="233">SQRT(Q55)</f>
-        <v>166.27045899524356</v>
+        <v>2.6269503305698318</v>
       </c>
       <c r="R56">
         <f t="shared" ref="R56" si="234">SQRT(R55)</f>
-        <v>214.66450468996644</v>
+        <v>3.1747516530902726</v>
       </c>
       <c r="S56">
         <f t="shared" ref="S56" si="235">SQRT(S55)</f>
-        <v>266.9503724257911</v>
+        <v>4.1434627314064025</v>
       </c>
       <c r="T56">
         <f t="shared" ref="T56" si="236">SQRT(T55)</f>
-        <v>319.04564182431147</v>
+        <v>6.3297612618047285</v>
       </c>
       <c r="U56">
         <f t="shared" ref="U56" si="237">SQRT(U55)</f>
-        <v>403.15961864580646</v>
+        <v>11.441004959438354</v>
       </c>
       <c r="V56">
         <f t="shared" ref="V56" si="238">SQRT(V55)</f>
-        <v>489.93869876117935</v>
+        <v>15.990599381188627</v>
       </c>
       <c r="W56">
         <f t="shared" ref="W56" si="239">SQRT(W55)</f>
-        <v>576.41087351904741</v>
+        <v>29.609265988455149</v>
       </c>
       <c r="X56">
         <f t="shared" ref="X56" si="240">SQRT(X55)</f>
-        <v>660.70880508768857</v>
+        <v>58.623784903444765</v>
       </c>
       <c r="Y56">
         <f t="shared" ref="Y56" si="241">SQRT(Y55)</f>
-        <v>752.67663179931424</v>
+        <v>88.603073317162227</v>
       </c>
       <c r="Z56">
         <f t="shared" ref="Z56" si="242">SQRT(Z55)</f>
-        <v>825.53547837740643</v>
+        <v>131.44617543704862</v>
       </c>
       <c r="AA56">
         <f t="shared" ref="AA56" si="243">SQRT(AA55)</f>
-        <v>888.45467329556675</v>
+        <v>205.18735186811753</v>
       </c>
       <c r="AB56" s="43">
         <f t="shared" ref="AB56" si="244">SQRT(AB55)</f>
-        <v>951.11776122604374</v>
+        <v>287.44759890660043</v>
       </c>
       <c r="AC56" s="44">
         <f t="shared" ref="AC56" si="245">SQRT(AC55)</f>
-        <v>1043.5028178450536</v>
+        <v>359.43525646522983</v>
       </c>
       <c r="AD56" s="44">
         <f t="shared" ref="AD56" si="246">SQRT(AD55)</f>
-        <v>1106.39692571929</v>
+        <v>425.88393915888207</v>
       </c>
       <c r="AE56" s="44">
         <f t="shared" ref="AE56" si="247">SQRT(AE55)</f>
-        <v>1091.3553995368807</v>
+        <v>537.67653912364995</v>
       </c>
       <c r="AF56" s="45">
         <f t="shared" ref="AF56" si="248">SQRT(AF55)</f>
-        <v>1151.6387696433344</v>
+        <v>672.73335833370402</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18033,107 +18033,107 @@
       </c>
       <c r="F72">
         <f>G73-F73</f>
-        <v>2.1258961499737858</v>
+        <v>1.1839014549797078E-4</v>
       </c>
       <c r="G72">
         <f t="shared" ref="G72" si="327">H73-G73</f>
-        <v>3.0683380132166009</v>
+        <v>1.7649615734315061E-4</v>
       </c>
       <c r="H72">
         <f t="shared" ref="H72" si="328">I73-H73</f>
-        <v>4.4057930511737169</v>
+        <v>2.7196768101142577E-4</v>
       </c>
       <c r="I72">
         <f t="shared" ref="I72" si="329">J73-I73</f>
-        <v>6.1698719826129818</v>
+        <v>4.3644857045185836E-4</v>
       </c>
       <c r="J72">
         <f t="shared" ref="J72" si="330">K73-J73</f>
-        <v>8.8049099975777416</v>
+        <v>7.4322735660284356E-4</v>
       </c>
       <c r="K72">
         <f t="shared" ref="K72" si="331">L73-K73</f>
-        <v>10.892760898573254</v>
+        <v>1.6033321793276212E-3</v>
       </c>
       <c r="L72">
         <f t="shared" ref="L72" si="332">M73-L73</f>
-        <v>15.107742408165805</v>
+        <v>2.4396413773989795E-3</v>
       </c>
       <c r="M72">
         <f t="shared" ref="M72" si="333">N73-M73</f>
-        <v>19.579937239398959</v>
+        <v>3.8646138158544147E-3</v>
       </c>
       <c r="N72">
         <f t="shared" ref="N72" si="334">O73-N73</f>
-        <v>26.092256544702252</v>
+        <v>6.9067681854918517E-3</v>
       </c>
       <c r="O72">
         <f t="shared" ref="O72" si="335">P73-O73</f>
-        <v>32.355136333687767</v>
+        <v>1.3255866682955961E-2</v>
       </c>
       <c r="P72">
         <f t="shared" ref="P72" si="336">Q73-P73</f>
-        <v>39.728572622539531</v>
+        <v>2.171252807688813E-2</v>
       </c>
       <c r="Q72">
         <f t="shared" ref="Q72" si="337">R73-Q73</f>
-        <v>50.329108745936651</v>
+        <v>3.4943665251089329E-2</v>
       </c>
       <c r="R72">
         <f t="shared" ref="R72" si="338">S73-R73</f>
-        <v>53.762618180290303</v>
+        <v>8.4881598295829419E-2</v>
       </c>
       <c r="S72">
         <f t="shared" ref="S72" si="339">T73-S73</f>
-        <v>53.723981452839041</v>
+        <v>0.17117470247307942</v>
       </c>
       <c r="T72">
         <f t="shared" ref="T72" si="340">U73-T73</f>
-        <v>88.016552996291637</v>
+        <v>0.31354918254163217</v>
       </c>
       <c r="U72">
         <f t="shared" ref="U72" si="341">V73-U73</f>
-        <v>89.648540714488377</v>
+        <v>0.83906965886154239</v>
       </c>
       <c r="V72">
         <f t="shared" ref="V72" si="342">W73-V73</f>
-        <v>98.494148461441057</v>
+        <v>1.1988286866332911</v>
       </c>
       <c r="W72">
         <f t="shared" ref="W72" si="343">X73-W73</f>
-        <v>112.73904534925236</v>
+        <v>1.5500646773803113</v>
       </c>
       <c r="X72">
         <f t="shared" ref="X72" si="344">Y73-X73</f>
-        <v>124.46495323320266</v>
+        <v>2.664386543278483</v>
       </c>
       <c r="Y72">
         <f t="shared" ref="Y72" si="345">Z73-Y73</f>
-        <v>122.34270990565051</v>
+        <v>3.2582889004116193</v>
       </c>
       <c r="Z72">
         <f t="shared" ref="Z72" si="346">AA73-Z73</f>
-        <v>149.55674063584695</v>
+        <v>4.509325616412001</v>
       </c>
       <c r="AA72">
         <f t="shared" ref="AA72" si="347">AB73-AA73</f>
-        <v>167.62150794257354</v>
+        <v>7.5576760865238644</v>
       </c>
       <c r="AB72" s="43">
         <f t="shared" ref="AB72" si="348">AC73-AB73</f>
-        <v>197.90882814580596</v>
+        <v>9.6384933557705459</v>
       </c>
       <c r="AC72" s="44">
         <f t="shared" ref="AC72" si="349">AD73-AC73</f>
-        <v>172.52888043225471</v>
+        <v>11.147033121177127</v>
       </c>
       <c r="AD72" s="44">
         <f t="shared" ref="AD72" si="350">AE73-AD73</f>
-        <v>149.93168854893634</v>
+        <v>14.063247385333604</v>
       </c>
       <c r="AE72" s="44">
         <f t="shared" ref="AE72" si="351">AF73-AE73</f>
-        <v>272.11666980485052</v>
+        <v>19.992149555257434</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
@@ -18149,111 +18149,111 @@
       </c>
       <c r="F73">
         <f>$E$3+(E4*$C72)*(EXP(-EXP($A72-$B72*F71)))</f>
-        <v>3.6975919827444064</v>
+        <v>7.083325931083094E-2</v>
       </c>
       <c r="G73">
         <f t="shared" ref="G73:AF73" si="352">$E$3+(F4*$C72)*(EXP(-EXP($A72-$B72*G71)))</f>
-        <v>5.8234881327181922</v>
+        <v>7.0951649456328911E-2</v>
       </c>
       <c r="H73">
         <f t="shared" si="352"/>
-        <v>8.8918261459347931</v>
+        <v>7.1128145613672061E-2</v>
       </c>
       <c r="I73">
         <f t="shared" si="352"/>
-        <v>13.29761919710851</v>
+        <v>7.1400113294683487E-2</v>
       </c>
       <c r="J73">
         <f t="shared" si="352"/>
-        <v>19.467491179721492</v>
+        <v>7.1836561865135345E-2</v>
       </c>
       <c r="K73">
         <f t="shared" si="352"/>
-        <v>28.272401177299233</v>
+        <v>7.2579789221738189E-2</v>
       </c>
       <c r="L73">
         <f t="shared" si="352"/>
-        <v>39.165162075872487</v>
+        <v>7.418312140106581E-2</v>
       </c>
       <c r="M73">
         <f t="shared" si="352"/>
-        <v>54.272904484038293</v>
+        <v>7.662276277846479E-2</v>
       </c>
       <c r="N73">
         <f t="shared" si="352"/>
-        <v>73.852841723437251</v>
+        <v>8.0487376594319204E-2</v>
       </c>
       <c r="O73">
         <f t="shared" si="352"/>
-        <v>99.945098268139503</v>
+        <v>8.7394144779811056E-2</v>
       </c>
       <c r="P73">
         <f t="shared" si="352"/>
-        <v>132.30023460182727</v>
+        <v>0.10065001146276702</v>
       </c>
       <c r="Q73">
         <f t="shared" si="352"/>
-        <v>172.0288072243668</v>
+        <v>0.12236253953965515</v>
       </c>
       <c r="R73">
         <f t="shared" si="352"/>
-        <v>222.35791597030345</v>
+        <v>0.15730620479074447</v>
       </c>
       <c r="S73">
         <f t="shared" si="352"/>
-        <v>276.12053415059376</v>
+        <v>0.24218780308657389</v>
       </c>
       <c r="T73">
         <f t="shared" si="352"/>
-        <v>329.8445156034328</v>
+        <v>0.41336250555965331</v>
       </c>
       <c r="U73">
         <f t="shared" si="352"/>
-        <v>417.86106859972443</v>
+        <v>0.72691168810128548</v>
       </c>
       <c r="V73">
         <f t="shared" si="352"/>
-        <v>507.50960931421281</v>
+        <v>1.5659813469628279</v>
       </c>
       <c r="W73">
         <f t="shared" si="352"/>
-        <v>606.00375777565387</v>
+        <v>2.764810033596119</v>
       </c>
       <c r="X73">
         <f t="shared" si="352"/>
-        <v>718.74280312490623</v>
+        <v>4.3148747109764303</v>
       </c>
       <c r="Y73">
         <f t="shared" si="352"/>
-        <v>843.2077563581089</v>
+        <v>6.9792612542549133</v>
       </c>
       <c r="Z73">
         <f t="shared" si="352"/>
-        <v>965.5504662637594</v>
+        <v>10.237550154666533</v>
       </c>
       <c r="AA73">
         <f t="shared" si="352"/>
-        <v>1115.1072068996064</v>
+        <v>14.746875771078534</v>
       </c>
       <c r="AB73" s="43">
         <f t="shared" si="352"/>
-        <v>1282.7287148421799</v>
+        <v>22.304551857602398</v>
       </c>
       <c r="AC73" s="44">
         <f t="shared" si="352"/>
-        <v>1480.6375429879859</v>
+        <v>31.943045213372944</v>
       </c>
       <c r="AD73" s="44">
         <f t="shared" si="352"/>
-        <v>1653.1664234202406</v>
+        <v>43.090078334550071</v>
       </c>
       <c r="AE73" s="44">
         <f t="shared" si="352"/>
-        <v>1803.0981119691769</v>
+        <v>57.153325719883675</v>
       </c>
       <c r="AF73" s="45">
         <f t="shared" si="352"/>
-        <v>2075.2147817740274</v>
+        <v>77.145475275141109</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
@@ -18262,126 +18262,126 @@
       </c>
       <c r="B74" s="17">
         <f>AF73-$AF$3</f>
-        <v>1332.0362552502743</v>
+        <v>-666.03305124861208</v>
       </c>
       <c r="C74" s="18">
         <f>((AF73-AA73)-($AF$3-$AA$3))</f>
-        <v>436.77366960867391</v>
+        <v>-460.93530576168456</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="5">
         <f>SUM(F74:AA74)</f>
-        <v>3495170.7159482772</v>
+        <v>71995.949743940248</v>
       </c>
       <c r="F74" s="3">
         <f>(F73-F$3)^2</f>
-        <v>12.955906235455837</v>
+        <v>7.4678388038244478E-4</v>
       </c>
       <c r="G74" s="3">
         <f t="shared" ref="G74" si="353">(G73-G$3)^2</f>
-        <v>32.222342095496082</v>
+        <v>5.7857020499509186E-3</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" ref="H74" si="354">(H73-H$3)^2</f>
-        <v>75.497109892028789</v>
+        <v>1.7368791360107612E-2</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" ref="I74" si="355">(I73-I$3)^2</f>
-        <v>169.295296248569</v>
+        <v>4.6167609713528276E-2</v>
       </c>
       <c r="J74" s="3">
         <f t="shared" ref="J74" si="356">(J73-J$3)^2</f>
-        <v>362.48320698880161</v>
+        <v>0.1272083988303527</v>
       </c>
       <c r="K74" s="3">
         <f t="shared" ref="K74" si="357">(K73-K$3)^2</f>
-        <v>765.29024287834329</v>
+        <v>0.28723343834254389</v>
       </c>
       <c r="L74" s="3">
         <f t="shared" ref="L74" si="358">(L73-L$3)^2</f>
-        <v>1469.6516294148983</v>
+        <v>0.56993939184714049</v>
       </c>
       <c r="M74" s="3">
         <f t="shared" ref="M74" si="359">(M73-M$3)^2</f>
-        <v>2825.5942364338835</v>
+        <v>1.0815227197774198</v>
       </c>
       <c r="N74" s="3">
         <f t="shared" ref="N74" si="360">(N73-N$3)^2</f>
-        <v>5240.1724910189869</v>
+        <v>1.9135704511261777</v>
       </c>
       <c r="O74" s="3">
         <f t="shared" ref="O74" si="361">(O73-O$3)^2</f>
-        <v>9622.144587109291</v>
+        <v>3.1158370709561236</v>
       </c>
       <c r="P74" s="3">
         <f t="shared" ref="P74" si="362">(P73-P$3)^2</f>
-        <v>16902.368896682168</v>
+        <v>4.7981753306497028</v>
       </c>
       <c r="Q74" s="3">
         <f t="shared" ref="Q74" si="363">(Q73-Q$3)^2</f>
-        <v>28655.853603829808</v>
+        <v>6.8961141046888068</v>
       </c>
       <c r="R74" s="3">
         <f t="shared" ref="R74" si="364">(R73-R$3)^2</f>
-        <v>47973.071514803218</v>
+        <v>10.068252416474593</v>
       </c>
       <c r="S74" s="3">
         <f t="shared" ref="S74" si="365">(S73-S$3)^2</f>
-        <v>73841.463683380411</v>
+        <v>17.143640511074764</v>
       </c>
       <c r="T74" s="3">
         <f t="shared" ref="T74" si="366">(T73-T$3)^2</f>
-        <v>104397.23584250403</v>
+        <v>40.01248316828994</v>
       </c>
       <c r="U74" s="3">
         <f t="shared" ref="U74" si="367">(U73-U$3)^2</f>
-        <v>164590.16762297388</v>
+        <v>130.80540605076774</v>
       </c>
       <c r="V74" s="3">
         <f t="shared" ref="V74" si="368">(V73-V$3)^2</f>
-        <v>240054.01172157319</v>
+        <v>255.69791410581567</v>
       </c>
       <c r="W74" s="3">
         <f t="shared" ref="W74" si="369">(W73-W$3)^2</f>
-        <v>329036.76161264634</v>
+        <v>877.44435149683989</v>
       </c>
       <c r="X74" s="3">
         <f t="shared" ref="X74" si="370">(X73-X$3)^2</f>
-        <v>430040.85888887331</v>
+        <v>3440.1652724035944</v>
       </c>
       <c r="Y74" s="3">
         <f t="shared" ref="Y74" si="371">(Y73-Y$3)^2</f>
-        <v>558881.37447280053</v>
+        <v>7857.9013629552965</v>
       </c>
       <c r="Z74" s="3">
         <f t="shared" ref="Z74" si="372">(Z73-Z$3)^2</f>
-        <v>678727.14379021071</v>
+        <v>17282.7661872184</v>
       </c>
       <c r="AA74" s="3">
         <f t="shared" ref="AA74" si="373">(AA73-AA$3)^2</f>
-        <v>801495.09724968381</v>
+        <v>42065.085203820476</v>
       </c>
       <c r="AB74" s="46">
         <f t="shared" ref="AB74" si="374">(AB73-AB$3)^2</f>
-        <v>947433.88191562716</v>
+        <v>82404.597274734144</v>
       </c>
       <c r="AC74" s="47">
         <f t="shared" ref="AC74" si="375">(AC73-AC$3)^2</f>
-        <v>1188679.7710000384</v>
+        <v>128471.04711233238</v>
       </c>
       <c r="AD74" s="47">
         <f t="shared" ref="AD74" si="376">(AD73-AD$3)^2</f>
-        <v>1407238.9166088961</v>
+        <v>179610.95938820697</v>
       </c>
       <c r="AE74" s="47">
         <f t="shared" ref="AE74" si="377">(AE73-AE$3)^2</f>
-        <v>1469163.7335650499</v>
+        <v>285000.24330604187</v>
       </c>
       <c r="AF74" s="48">
         <f t="shared" ref="AF74" si="378">(AF73-AF$3)^2</f>
-        <v>1774320.5853011739</v>
+        <v>443600.02535553632</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18390,126 +18390,126 @@
       </c>
       <c r="B75" s="20">
         <f>(B74/$AF$3)*100</f>
-        <v>179.23503003792729</v>
+        <v>-89.619523099517949</v>
       </c>
       <c r="C75" s="21">
         <f>((C74)/($AF$3-$AA$3))*100</f>
-        <v>83.459845657598237</v>
+        <v>-88.07671376224387</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="5">
         <f>SUM(F75:AA75)</f>
-        <v>6044.5512277977732</v>
+        <v>565.65032150734555</v>
       </c>
       <c r="F75">
         <f>SQRT(F74)</f>
-        <v>3.5994313766838002</v>
+        <v>2.7327346749775119E-2</v>
       </c>
       <c r="G75">
         <f t="shared" ref="G75" si="379">SQRT(G74)</f>
-        <v>5.6764726807671755</v>
+        <v>7.6063802494688096E-2</v>
       </c>
       <c r="H75">
         <f t="shared" ref="H75" si="380">SQRT(H74)</f>
-        <v>8.6889072898741873</v>
+        <v>0.13179071044693405</v>
       </c>
       <c r="I75">
         <f t="shared" ref="I75" si="381">SQRT(I74)</f>
-        <v>13.011352591047904</v>
+        <v>0.21486649276592262</v>
       </c>
       <c r="J75">
         <f t="shared" ref="J75" si="382">SQRT(J74)</f>
-        <v>19.038991753472704</v>
+        <v>0.35666286438365391</v>
       </c>
       <c r="K75">
         <f t="shared" ref="K75" si="383">SQRT(K74)</f>
-        <v>27.66387975101004</v>
+        <v>0.53594163706745523</v>
       </c>
       <c r="L75">
         <f t="shared" ref="L75" si="384">SQRT(L74)</f>
-        <v>38.336035650741174</v>
+        <v>0.75494330373024732</v>
       </c>
       <c r="M75">
         <f t="shared" ref="M75" si="385">SQRT(M74)</f>
-        <v>53.156318875876678</v>
+        <v>1.0399628453831511</v>
       </c>
       <c r="N75">
         <f t="shared" ref="N75" si="386">SQRT(N74)</f>
-        <v>72.389035709967757</v>
+        <v>1.3833186368751698</v>
       </c>
       <c r="O75">
         <f t="shared" ref="O75" si="387">SQRT(O74)</f>
-        <v>98.092530740670014</v>
+        <v>1.7651733826896789</v>
       </c>
       <c r="P75">
         <f t="shared" ref="P75" si="388">SQRT(P74)</f>
-        <v>130.00911082182728</v>
+        <v>2.190473768537232</v>
       </c>
       <c r="Q75">
         <f t="shared" ref="Q75" si="389">SQRT(Q74)</f>
-        <v>169.28039934921529</v>
+        <v>2.62604533561186</v>
       </c>
       <c r="R75">
         <f t="shared" ref="R75" si="390">SQRT(R74)</f>
-        <v>219.02755880209051</v>
+        <v>3.1730509634222064</v>
       </c>
       <c r="S75">
         <f t="shared" ref="S75" si="391">SQRT(S74)</f>
-        <v>271.73785839183398</v>
+        <v>4.1404879556731915</v>
       </c>
       <c r="T75">
         <f t="shared" ref="T75" si="392">SQRT(T74)</f>
-        <v>323.10561097341537</v>
+        <v>6.3255421244577876</v>
       </c>
       <c r="U75">
         <f t="shared" ref="U75" si="393">SQRT(U74)</f>
-        <v>405.69713780475934</v>
+        <v>11.437019106863804</v>
       </c>
       <c r="V75">
         <f t="shared" ref="V75" si="394">SQRT(V74)</f>
-        <v>489.95307093799624</v>
+        <v>15.990557029253724</v>
       </c>
       <c r="W75">
         <f t="shared" ref="W75" si="395">SQRT(W74)</f>
-        <v>573.61726056025054</v>
+        <v>29.621687181807182</v>
       </c>
       <c r="X75">
         <f t="shared" ref="X75" si="396">SQRT(X74)</f>
-        <v>655.77500630084501</v>
+        <v>58.65292211308482</v>
       </c>
       <c r="Y75">
         <f t="shared" ref="Y75" si="397">SQRT(Y74)</f>
-        <v>747.58369061450276</v>
+        <v>88.644804489351188</v>
       </c>
       <c r="Z75">
         <f t="shared" ref="Z75" si="398">SQRT(Z74)</f>
-        <v>823.84898117932437</v>
+        <v>131.46393492976847</v>
       </c>
       <c r="AA75">
         <f t="shared" ref="AA75" si="399">SQRT(AA74)</f>
-        <v>895.26258564160037</v>
+        <v>205.09774548692747</v>
       </c>
       <c r="AB75" s="43">
         <f t="shared" ref="AB75" si="400">SQRT(AB74)</f>
-        <v>973.36215352541171</v>
+        <v>287.06200945916572</v>
       </c>
       <c r="AC75" s="44">
         <f t="shared" ref="AC75" si="401">SQRT(AC74)</f>
-        <v>1090.2659175632514</v>
+        <v>358.42858021136146</v>
       </c>
       <c r="AD75" s="44">
         <f t="shared" ref="AD75" si="402">SQRT(AD74)</f>
-        <v>1186.2710131369206</v>
+        <v>423.80533194876983</v>
       </c>
       <c r="AE75" s="44">
         <f t="shared" ref="AE75" si="403">SQRT(AE74)</f>
-        <v>1212.0906457707897</v>
+        <v>533.85414047850361</v>
       </c>
       <c r="AF75" s="45">
         <f t="shared" ref="AF75" si="404">SQRT(AF74)</f>
-        <v>1332.0362552502743</v>
+        <v>666.03305124861208</v>
       </c>
     </row>
     <row r="80" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18630,107 +18630,107 @@
       </c>
       <c r="F82">
         <f>G83-F83</f>
-        <v>2.0953072327983961</v>
+        <v>1.1639199134280687E-4</v>
       </c>
       <c r="G82">
         <f t="shared" ref="G82" si="405">H83-G83</f>
-        <v>3.0432763293987479</v>
+        <v>1.7473057050694518E-4</v>
       </c>
       <c r="H82">
         <f t="shared" ref="H82" si="406">I83-H83</f>
-        <v>4.3881534514993739</v>
+        <v>2.7037958110277815E-4</v>
       </c>
       <c r="I82">
         <f t="shared" ref="I82" si="407">J83-I83</f>
-        <v>6.1632393167336907</v>
+        <v>4.349838358017194E-4</v>
       </c>
       <c r="J82">
         <f t="shared" ref="J82" si="408">K83-J83</f>
-        <v>8.8090656843884787</v>
+        <v>7.417860214577604E-4</v>
       </c>
       <c r="K82">
         <f t="shared" ref="K82" si="409">L83-K83</f>
-        <v>10.918034162412958</v>
+        <v>1.6005768421568783E-3</v>
       </c>
       <c r="L82">
         <f t="shared" ref="L82" si="410">M83-L83</f>
-        <v>15.143232303746359</v>
+        <v>2.439507052046555E-3</v>
       </c>
       <c r="M82">
         <f t="shared" ref="M82" si="411">N83-M83</f>
-        <v>19.62752815761381</v>
+        <v>3.867068364914128E-3</v>
       </c>
       <c r="N82">
         <f t="shared" ref="N82" si="412">O83-N83</f>
-        <v>26.146538501287992</v>
+        <v>6.9117423676853945E-3</v>
       </c>
       <c r="O82">
         <f t="shared" ref="O82" si="413">P83-O83</f>
-        <v>32.411887037432166</v>
+        <v>1.3264847650729064E-2</v>
       </c>
       <c r="P82">
         <f t="shared" ref="P82" si="414">Q83-P83</f>
-        <v>39.779507222381568</v>
+        <v>2.172718469807064E-2</v>
       </c>
       <c r="Q82">
         <f t="shared" ref="Q82" si="415">R83-Q83</f>
-        <v>50.36725827432889</v>
+        <v>3.4962281515779209E-2</v>
       </c>
       <c r="R82">
         <f t="shared" ref="R82" si="416">S83-R83</f>
-        <v>53.778822572547853</v>
+        <v>8.4910234225626435E-2</v>
       </c>
       <c r="S82">
         <f t="shared" ref="S82" si="417">T83-S83</f>
-        <v>53.714696395637532</v>
+        <v>0.17120532603066813</v>
       </c>
       <c r="T82">
         <f t="shared" ref="T82" si="418">U83-T83</f>
-        <v>87.991433495326532</v>
+        <v>0.31355602372607327</v>
       </c>
       <c r="U82">
         <f t="shared" ref="U82" si="419">V83-U83</f>
-        <v>89.604131459954772</v>
+        <v>0.83902407807655277</v>
       </c>
       <c r="V82">
         <f t="shared" ref="V82" si="420">W83-V83</f>
-        <v>98.444572139634658</v>
+        <v>1.1986346010281306</v>
       </c>
       <c r="W82">
         <f t="shared" ref="W82" si="421">X83-W83</f>
-        <v>112.70136490374171</v>
+        <v>1.5497954408669323</v>
       </c>
       <c r="X82">
         <f t="shared" ref="X82" si="422">Y83-X83</f>
-        <v>124.46144207286591</v>
+        <v>2.6641983077960179</v>
       </c>
       <c r="Y82">
         <f t="shared" ref="Y82" si="423">Z83-Y83</f>
-        <v>122.40011759047889</v>
+        <v>3.2587223992437071</v>
       </c>
       <c r="Z82">
         <f t="shared" ref="Z82" si="424">AA83-Z83</f>
-        <v>149.70231544791284</v>
+        <v>4.5112001286456636</v>
       </c>
       <c r="AA82">
         <f t="shared" ref="AA82" si="425">AB83-AA83</f>
-        <v>167.88959378834829</v>
+        <v>7.5628646245153917</v>
       </c>
       <c r="AB82" s="43">
         <f t="shared" ref="AB82" si="426">AC83-AB83</f>
-        <v>198.34199542906731</v>
+        <v>9.649486447642154</v>
       </c>
       <c r="AC82" s="44">
         <f t="shared" ref="AC82" si="427">AD83-AC83</f>
-        <v>173.12627321409991</v>
+        <v>11.16631607492188</v>
       </c>
       <c r="AD82" s="44">
         <f t="shared" ref="AD82" si="428">AE83-AD83</f>
-        <v>150.68785981060228</v>
+        <v>14.095237607851473</v>
       </c>
       <c r="AE82" s="44">
         <f t="shared" ref="AE82" si="429">AF83-AE83</f>
-        <v>273.2441395799699</v>
+        <v>20.046003154377303</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
@@ -18746,111 +18746,111 @@
       </c>
       <c r="F83">
         <f>$E$3+($C82/($C82+E5))*E4*(EXP(-EXP($A82-$B82*F81)))</f>
-        <v>3.5450669400370214</v>
+        <v>7.0825977404780555E-2</v>
       </c>
       <c r="G83">
         <f>$E$3+($C82/($C82+F5))*F4*(EXP(-EXP($A82-$B82*G81)))</f>
-        <v>5.6403741728354175</v>
+        <v>7.0942369396123361E-2</v>
       </c>
       <c r="H83">
         <f>$E$3+($C82/($C82+G5))*G4*(EXP(-EXP($A82-$B82*H81)))</f>
-        <v>8.6836505022341655</v>
+        <v>7.1117099966630307E-2</v>
       </c>
       <c r="I83">
         <f t="shared" ref="I83:AF83" si="430">$E$3+($C82/($C82+H5))*H4*(EXP(-EXP($A82-$B82*I81)))</f>
-        <v>13.071803953733539</v>
+        <v>7.1387479547733085E-2</v>
       </c>
       <c r="J83">
         <f t="shared" si="430"/>
-        <v>19.23504327046723</v>
+        <v>7.1822463383534804E-2</v>
       </c>
       <c r="K83">
         <f t="shared" si="430"/>
-        <v>28.044108954855709</v>
+        <v>7.2564249404992565E-2</v>
       </c>
       <c r="L83">
         <f t="shared" si="430"/>
-        <v>38.962143117268667</v>
+        <v>7.4164826247149443E-2</v>
       </c>
       <c r="M83">
         <f t="shared" si="430"/>
-        <v>54.105375421015026</v>
+        <v>7.6604333299195998E-2</v>
       </c>
       <c r="N83">
         <f t="shared" si="430"/>
-        <v>73.732903578628836</v>
+        <v>8.0471401664110126E-2</v>
       </c>
       <c r="O83">
         <f t="shared" si="430"/>
-        <v>99.879442079916828</v>
+        <v>8.738314403179552E-2</v>
       </c>
       <c r="P83">
         <f t="shared" si="430"/>
-        <v>132.29132911734899</v>
+        <v>0.10064799168252458</v>
       </c>
       <c r="Q83">
         <f t="shared" si="430"/>
-        <v>172.07083633973056</v>
+        <v>0.12237517638059522</v>
       </c>
       <c r="R83">
         <f t="shared" si="430"/>
-        <v>222.43809461405945</v>
+        <v>0.15733745789637443</v>
       </c>
       <c r="S83">
         <f t="shared" si="430"/>
-        <v>276.2169171866073</v>
+        <v>0.24224769212200087</v>
       </c>
       <c r="T83">
         <f t="shared" si="430"/>
-        <v>329.93161358224484</v>
+        <v>0.41345301815266899</v>
       </c>
       <c r="U83">
         <f t="shared" si="430"/>
-        <v>417.92304707757137</v>
+        <v>0.72700904187874227</v>
       </c>
       <c r="V83">
         <f t="shared" si="430"/>
-        <v>507.52717853752614</v>
+        <v>1.566033119955295</v>
       </c>
       <c r="W83">
         <f t="shared" si="430"/>
-        <v>605.9717506771608</v>
+        <v>2.7646677209834256</v>
       </c>
       <c r="X83">
         <f t="shared" si="430"/>
-        <v>718.6731155809025</v>
+        <v>4.3144631618503579</v>
       </c>
       <c r="Y83">
         <f t="shared" si="430"/>
-        <v>843.13455765376841</v>
+        <v>6.9786614696463758</v>
       </c>
       <c r="Z83">
         <f t="shared" si="430"/>
-        <v>965.5346752442473</v>
+        <v>10.237383868890083</v>
       </c>
       <c r="AA83">
         <f t="shared" si="430"/>
-        <v>1115.2369906921601</v>
+        <v>14.748583997535746</v>
       </c>
       <c r="AB83" s="43">
         <f t="shared" si="430"/>
-        <v>1283.1265844805084</v>
+        <v>22.311448622051138</v>
       </c>
       <c r="AC83" s="44">
         <f t="shared" si="430"/>
-        <v>1481.4685799095757</v>
+        <v>31.960935069693292</v>
       </c>
       <c r="AD83" s="44">
         <f t="shared" si="430"/>
-        <v>1654.5948531236756</v>
+        <v>43.127251144615173</v>
       </c>
       <c r="AE83" s="44">
         <f t="shared" si="430"/>
-        <v>1805.2827129342779</v>
+        <v>57.222488752466646</v>
       </c>
       <c r="AF83" s="45">
         <f t="shared" si="430"/>
-        <v>2078.5268525142478</v>
+        <v>77.268491906843948</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
@@ -18859,126 +18859,126 @@
       </c>
       <c r="B84" s="17">
         <f>AF83-$AF$3</f>
-        <v>1335.3483259904947</v>
+        <v>-665.91003461690923</v>
       </c>
       <c r="C84" s="28">
         <f>((AF83-AA83)-($AF$3-$AA$3))</f>
-        <v>439.95595655634054</v>
+        <v>-460.81399735643896</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="5">
         <f>SUM(F84:AA84)</f>
-        <v>3495265.3512644796</v>
+        <v>71995.450211954798</v>
       </c>
       <c r="F84" s="3">
         <f>(F83-F$3)^2</f>
-        <v>11.881163275206731</v>
+        <v>7.4718192375187683E-4</v>
       </c>
       <c r="G84" s="3">
         <f t="shared" ref="G84" si="431">(G83-G$3)^2</f>
-        <v>30.176990036316699</v>
+        <v>5.7871138894036635E-3</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" ref="H84" si="432">(H83-H$3)^2</f>
-        <v>71.9228092544097</v>
+        <v>1.7371702909455892E-2</v>
       </c>
       <c r="I84" s="3">
         <f t="shared" ref="I84" si="433">(I83-I$3)^2</f>
-        <v>163.46996526873943</v>
+        <v>4.6173039010935293E-2</v>
       </c>
       <c r="J84" s="3">
         <f t="shared" ref="J84" si="434">(J83-J$3)^2</f>
-        <v>353.68609136451056</v>
+        <v>0.12721845583878211</v>
       </c>
       <c r="K84" s="3">
         <f t="shared" ref="K84" si="435">(K83-K$3)^2</f>
-        <v>752.71146303763453</v>
+        <v>0.28725009545368257</v>
       </c>
       <c r="L84" s="3">
         <f t="shared" ref="L84" si="436">(L83-L$3)^2</f>
-        <v>1454.1269620428261</v>
+        <v>0.56996701578973274</v>
       </c>
       <c r="M84" s="3">
         <f t="shared" ref="M84" si="437">(M83-M$3)^2</f>
-        <v>2807.8118458307576</v>
+        <v>1.0815610520644643</v>
       </c>
       <c r="N84" s="3">
         <f t="shared" ref="N84" si="438">(N83-N$3)^2</f>
-        <v>5222.8224628825201</v>
+        <v>1.9136146482187382</v>
       </c>
       <c r="O84" s="3">
         <f t="shared" ref="O84" si="439">(O83-O$3)^2</f>
-        <v>9609.2681345212477</v>
+        <v>3.1158759075323132</v>
       </c>
       <c r="P84" s="3">
         <f t="shared" ref="P84" si="440">(P83-P$3)^2</f>
-        <v>16900.053387752905</v>
+        <v>4.7981841792050615</v>
       </c>
       <c r="Q84" s="3">
         <f t="shared" ref="Q84" si="441">(Q83-Q$3)^2</f>
-        <v>28670.08478114249</v>
+        <v>6.8960477350140801</v>
       </c>
       <c r="R84" s="3">
         <f t="shared" ref="R84" si="442">(R83-R$3)^2</f>
-        <v>48008.200608638006</v>
+        <v>10.06805408205749</v>
       </c>
       <c r="S84" s="3">
         <f t="shared" ref="S84" si="443">(S83-S$3)^2</f>
-        <v>73893.854812653299</v>
+        <v>17.143144575001738</v>
       </c>
       <c r="T84" s="3">
         <f t="shared" ref="T84" si="444">(T83-T$3)^2</f>
-        <v>104453.52711987917</v>
+        <v>40.011338094042635</v>
       </c>
       <c r="U84" s="3">
         <f t="shared" ref="U84" si="445">(U83-U$3)^2</f>
-        <v>164640.4604464416</v>
+        <v>130.80317918621967</v>
       </c>
       <c r="V84" s="3">
         <f t="shared" ref="V84" si="446">(V83-V$3)^2</f>
-        <v>240071.22822008352</v>
+        <v>255.69625835051886</v>
       </c>
       <c r="W84" s="3">
         <f t="shared" ref="W84" si="447">(W83-W$3)^2</f>
-        <v>329000.04298878857</v>
+        <v>877.45278259648342</v>
       </c>
       <c r="X84" s="3">
         <f t="shared" ref="X84" si="448">(X83-X$3)^2</f>
-        <v>429949.46504601085</v>
+        <v>3440.2135496906421</v>
       </c>
       <c r="Y84" s="3">
         <f t="shared" ref="Y84" si="449">(Y83-Y$3)^2</f>
-        <v>558771.93551577278</v>
+        <v>7858.0076988937553</v>
       </c>
       <c r="Z84" s="3">
         <f t="shared" ref="Z84" si="450">(Z83-Z$3)^2</f>
-        <v>678701.12520889344</v>
+        <v>17282.80990841104</v>
       </c>
       <c r="AA84" s="3">
         <f t="shared" ref="AA84" si="451">(AA83-AA$3)^2</f>
-        <v>801727.49524090881</v>
+        <v>42064.384499948195</v>
       </c>
       <c r="AB84" s="46">
         <f t="shared" ref="AB84" si="452">(AB83-AB$3)^2</f>
-        <v>948208.58271184796</v>
+        <v>82400.63772417666</v>
       </c>
       <c r="AC84" s="47">
         <f t="shared" ref="AC84" si="453">(AC83-AC$3)^2</f>
-        <v>1190492.5640860957</v>
+        <v>128458.22296077717</v>
       </c>
       <c r="AD84" s="47">
         <f t="shared" ref="AD84" si="454">(AD83-AD$3)^2</f>
-        <v>1410629.9665232913</v>
+        <v>179579.45269980657</v>
       </c>
       <c r="AE84" s="47">
         <f t="shared" ref="AE84" si="455">(AE83-AE$3)^2</f>
-        <v>1474464.3748355077</v>
+        <v>284926.40214694198</v>
       </c>
       <c r="AF84" s="48">
         <f t="shared" ref="AF84" si="456">(AF83-AF$3)^2</f>
-        <v>1783155.1517256165</v>
+        <v>443436.17420349322</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18987,126 +18987,126 @@
       </c>
       <c r="B85" s="20">
         <f>(B84/$AF$3)*100</f>
-        <v>179.68069290654012</v>
+        <v>-89.602970329582803</v>
       </c>
       <c r="C85" s="29">
         <f>((C84)/($AF$3-$AA$3))*100</f>
-        <v>84.067925301520916</v>
+        <v>-88.053533837529443</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="5">
         <f>SUM(F85:AA85)</f>
-        <v>6043.0801458385822</v>
+        <v>565.64972539441737</v>
       </c>
       <c r="F85">
         <f>SQRT(F84)</f>
-        <v>3.4469063339764152</v>
+        <v>2.7334628655825505E-2</v>
       </c>
       <c r="G85">
         <f t="shared" ref="G85" si="457">SQRT(G84)</f>
-        <v>5.4933587208844008</v>
+        <v>7.6073082554893645E-2</v>
       </c>
       <c r="H85">
         <f t="shared" ref="H85" si="458">SQRT(H84)</f>
-        <v>8.4807316461735596</v>
+        <v>0.13180175609397582</v>
       </c>
       <c r="I85">
         <f t="shared" ref="I85" si="459">SQRT(I84)</f>
-        <v>12.785537347672934</v>
+        <v>0.21487912651287303</v>
       </c>
       <c r="J85">
         <f t="shared" ref="J85" si="460">SQRT(J84)</f>
-        <v>18.806543844218442</v>
+        <v>0.35667696286525447</v>
       </c>
       <c r="K85">
         <f t="shared" ref="K85" si="461">SQRT(K84)</f>
-        <v>27.435587528566515</v>
+        <v>0.53595717688420086</v>
       </c>
       <c r="L85">
         <f t="shared" ref="L85" si="462">SQRT(L84)</f>
-        <v>38.133016692137353</v>
+        <v>0.75496159888416359</v>
       </c>
       <c r="M85">
         <f t="shared" ref="M85" si="463">SQRT(M84)</f>
-        <v>52.988789812853412</v>
+        <v>1.03998127486242</v>
       </c>
       <c r="N85">
         <f t="shared" ref="N85" si="464">SQRT(N84)</f>
-        <v>72.269097565159342</v>
+        <v>1.3833346118053789</v>
       </c>
       <c r="O85">
         <f t="shared" ref="O85" si="465">SQRT(O84)</f>
-        <v>98.026874552447339</v>
+        <v>1.7651843834376943</v>
       </c>
       <c r="P85">
         <f t="shared" ref="P85" si="466">SQRT(P84)</f>
-        <v>130.000205337349</v>
+        <v>2.1904757883174746</v>
       </c>
       <c r="Q85">
         <f t="shared" ref="Q85" si="467">SQRT(Q84)</f>
-        <v>169.32242846457905</v>
+        <v>2.6260326987709197</v>
       </c>
       <c r="R85">
         <f t="shared" ref="R85" si="468">SQRT(R84)</f>
-        <v>219.10773744584651</v>
+        <v>3.1730197103165763</v>
       </c>
       <c r="S85">
         <f t="shared" ref="S85" si="469">SQRT(S84)</f>
-        <v>271.83424142784753</v>
+        <v>4.1404280666377646</v>
       </c>
       <c r="T85">
         <f t="shared" ref="T85" si="470">SQRT(T84)</f>
-        <v>323.19270895222741</v>
+        <v>6.3254516118647715</v>
       </c>
       <c r="U85">
         <f t="shared" ref="U85" si="471">SQRT(U84)</f>
-        <v>405.75911628260627</v>
+        <v>11.436921753086347</v>
       </c>
       <c r="V85">
         <f t="shared" ref="V85" si="472">SQRT(V84)</f>
-        <v>489.97064016130957</v>
+        <v>15.990505256261256</v>
       </c>
       <c r="W85">
         <f t="shared" ref="W85" si="473">SQRT(W84)</f>
-        <v>573.58525346175747</v>
+        <v>29.621829494419877</v>
       </c>
       <c r="X85">
         <f t="shared" ref="X85" si="474">SQRT(X84)</f>
-        <v>655.70531875684128</v>
+        <v>58.653333662210898</v>
       </c>
       <c r="Y85">
         <f t="shared" ref="Y85" si="475">SQRT(Y84)</f>
-        <v>747.51049191016227</v>
+        <v>88.645404273959713</v>
       </c>
       <c r="Z85">
         <f t="shared" ref="Z85" si="476">SQRT(Z84)</f>
-        <v>823.83319015981226</v>
+        <v>131.46410121554493</v>
       </c>
       <c r="AA85">
         <f t="shared" ref="AA85" si="477">SQRT(AA84)</f>
-        <v>895.39236943415415</v>
+        <v>205.09603726047024</v>
       </c>
       <c r="AB85" s="43">
         <f t="shared" ref="AB85" si="478">SQRT(AB84)</f>
-        <v>973.76002316374024</v>
+        <v>287.05511269471697</v>
       </c>
       <c r="AC85" s="44">
         <f t="shared" ref="AC85" si="479">SQRT(AC84)</f>
-        <v>1091.0969544848413</v>
+        <v>358.41069035504114</v>
       </c>
       <c r="AD85" s="44">
         <f t="shared" ref="AD85" si="480">SQRT(AD84)</f>
-        <v>1187.6994428403557</v>
+        <v>423.76815913870473</v>
       </c>
       <c r="AE85" s="44">
         <f t="shared" ref="AE85" si="481">SQRT(AE84)</f>
-        <v>1214.2752467358905</v>
+        <v>533.78497744592062</v>
       </c>
       <c r="AF85" s="45">
         <f t="shared" ref="AF85" si="482">SQRT(AF84)</f>
-        <v>1335.3483259904947</v>
+        <v>665.91003461690923</v>
       </c>
     </row>
   </sheetData>
@@ -19137,115 +19137,115 @@
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="61">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>0.63888277948860384</v>
       </c>
       <c r="B2" s="61">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>0.6992299715988195</v>
       </c>
       <c r="C2" s="61">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>0.74965579192971099</v>
       </c>
       <c r="D2" s="61">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>0.81185196528479286</v>
       </c>
       <c r="E2" s="61">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>0.90528789922853969</v>
       </c>
       <c r="F2" s="61">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>1.0594311355048751</v>
       </c>
       <c r="G2" s="61">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>1.423788417945723</v>
       </c>
       <c r="H2" s="61">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>1.7994765721321591</v>
       </c>
       <c r="I2" s="61">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>2.255640902039568</v>
       </c>
       <c r="J2" s="61">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>2.9718345488807878</v>
       </c>
       <c r="K2" s="61">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>4.1876869395573308</v>
       </c>
       <c r="L2" s="61">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>5.7628250982908593</v>
       </c>
       <c r="M2" s="61">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>7.8187626848272016</v>
       </c>
       <c r="N2" s="61">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>12.698194298744079</v>
       </c>
       <c r="O2" s="61">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>21.073503873656769</v>
       </c>
       <c r="P2" s="61">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>33.912263179829672</v>
       </c>
       <c r="Q2" s="61">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>65.648612993412343</v>
       </c>
       <c r="R2" s="61">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>101.52151966290219</v>
       </c>
       <c r="S2" s="61">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>138.59293640973411</v>
       </c>
       <c r="T2" s="61">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>197.26150234678809</v>
       </c>
       <c r="U2" s="61">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>255.9794773336148</v>
       </c>
       <c r="V2" s="61">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>328.41494798557272</v>
       </c>
       <c r="W2" s="61">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>445.47996089304161</v>
       </c>
       <c r="X2" s="61">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>575.760244320575</v>
       </c>
       <c r="Y2" s="61">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>705.2251576877859</v>
       </c>
       <c r="Z2" s="61">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>854.37473965683262</v>
       </c>
       <c r="AA2" s="61">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>1059.2936809324981</v>
       </c>
       <c r="AB2" s="61">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>1322.6156827866339</v>
       </c>
       <c r="AC2" s="60">
         <f t="shared" ref="AC2" si="0">E8</f>
@@ -19652,7 +19652,7 @@
       </c>
       <c r="B8">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>0.63888277948860384</v>
       </c>
       <c r="C8">
         <f>A8*$A$5+$B$5</f>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="B9">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>0.6992299715988195</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C35" si="1">A9*$A$5+$B$5</f>
@@ -19712,7 +19712,7 @@
       </c>
       <c r="B10">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>0.74965579192971099</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -19742,7 +19742,7 @@
       </c>
       <c r="B11">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>0.81185196528479286</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -19772,7 +19772,7 @@
       </c>
       <c r="B12">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>0.90528789922853969</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -19802,7 +19802,7 @@
       </c>
       <c r="B13">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>1.0594311355048751</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -19826,7 +19826,7 @@
       </c>
       <c r="B14">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>1.423788417945723</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -19853,7 +19853,7 @@
       </c>
       <c r="B15">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>1.7994765721321591</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -19893,7 +19893,7 @@
       </c>
       <c r="B16">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>2.255640902039568</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -19935,7 +19935,7 @@
       </c>
       <c r="B17">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>2.9718345488807878</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -19973,7 +19973,7 @@
       </c>
       <c r="B18">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>4.1876869395573308</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -20009,7 +20009,7 @@
       </c>
       <c r="B19">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>5.7628250982908593</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -20033,7 +20033,7 @@
       </c>
       <c r="B20">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>7.8187626848272016</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -20082,7 +20082,7 @@
       </c>
       <c r="B21">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>12.698194298744079</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -20133,7 +20133,7 @@
       </c>
       <c r="B22">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>21.073503873656769</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -20184,7 +20184,7 @@
       </c>
       <c r="B23">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>33.912263179829672</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -20208,7 +20208,7 @@
       </c>
       <c r="B24">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>65.648612993412343</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -20232,7 +20232,7 @@
       </c>
       <c r="B25">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>101.52151966290219</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -20256,7 +20256,7 @@
       </c>
       <c r="B26">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>138.59293640973411</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -20280,7 +20280,7 @@
       </c>
       <c r="B27">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>197.26150234678809</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -20304,7 +20304,7 @@
       </c>
       <c r="B28">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>255.9794773336148</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="B29">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>328.41494798557272</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -20352,7 +20352,7 @@
       </c>
       <c r="B30">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>445.47996089304161</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -20372,7 +20372,7 @@
       </c>
       <c r="B31">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>575.760244320575</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B32">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>705.2251576877859</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -20412,7 +20412,7 @@
       </c>
       <c r="B33">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>854.37473965683262</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -20432,7 +20432,7 @@
       </c>
       <c r="B34">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>1059.2936809324981</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -20452,7 +20452,7 @@
       </c>
       <c r="B35">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>1322.6156827866339</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
